--- a/output/Indonesia_formatted.xlsx
+++ b/output/Indonesia_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
     <t xml:space="preserve">IDN</t>
@@ -1169,22 +1172,25 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1194,10 +1200,10 @@
         <v>43384</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" t="n">
         <v>0.4</v>
@@ -1263,22 +1269,25 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
+      <c r="AI2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1288,10 +1297,10 @@
         <v>43633</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="n">
         <v>0.2</v>
@@ -1357,22 +1366,25 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
+      <c r="AI3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1382,10 +1394,10 @@
         <v>43383</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1451,22 +1463,25 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1476,10 +1491,10 @@
         <v>43384</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" t="n">
         <v>0.073728</v>
@@ -1545,22 +1560,25 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1570,10 +1588,10 @@
         <v>43416</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
         <v>0.105</v>
@@ -1639,22 +1657,25 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1664,10 +1685,10 @@
         <v>43455</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" t="n">
         <v>8.56</v>
@@ -1733,22 +1754,25 @@
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
+      <c r="AI7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1758,10 +1782,10 @@
         <v>43455</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" t="n">
         <v>0.21</v>
@@ -1827,22 +1851,25 @@
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
+      <c r="AI8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1852,10 +1879,10 @@
         <v>43613</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" t="n">
         <v>3.511466</v>
@@ -1921,22 +1948,25 @@
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
+      <c r="AI9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1946,10 +1976,10 @@
         <v>43769</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" t="n">
         <v>0.152133</v>
@@ -2015,22 +2045,25 @@
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
+      <c r="AI10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -2040,10 +2073,10 @@
         <v>43769</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="n">
         <v>0.481152</v>
@@ -2109,22 +2142,25 @@
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
+      <c r="AI11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -2134,10 +2170,10 @@
         <v>43769</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="n">
         <v>0.529268</v>
@@ -2203,22 +2239,25 @@
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
+      <c r="AI12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -2228,10 +2267,10 @@
         <v>43769</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" t="n">
         <v>0.4798</v>
@@ -2297,22 +2336,25 @@
       <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
+      <c r="AI13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -2322,10 +2364,10 @@
         <v>43769</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" t="n">
         <v>0.384922</v>
@@ -2391,22 +2433,25 @@
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
+      <c r="AI14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2416,10 +2461,10 @@
         <v>43769</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" t="n">
         <v>0.577383</v>
@@ -2485,22 +2530,25 @@
       <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
+      <c r="AI15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2510,10 +2558,10 @@
         <v>43769</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="n">
         <v>0.529268</v>
@@ -2579,22 +2627,25 @@
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2604,10 +2655,10 @@
         <v>43769</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" t="n">
         <v>0.433037</v>
@@ -2673,22 +2724,25 @@
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
+      <c r="AI17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2698,10 +2752,10 @@
         <v>43769</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" t="n">
         <v>0.433037</v>
@@ -2767,22 +2821,25 @@
       <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18"/>
+      <c r="AI18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2792,10 +2849,10 @@
         <v>43426</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" t="n">
         <v>0.2</v>
@@ -2861,22 +2918,25 @@
       <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
+      <c r="AI19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -2886,10 +2946,10 @@
         <v>43426</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20" t="n">
         <v>0.075</v>
@@ -2955,22 +3015,25 @@
       <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
+      <c r="AI20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -2980,10 +3043,10 @@
         <v>43426</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" t="n">
         <v>0.075</v>
@@ -3049,22 +3112,25 @@
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
+      <c r="AI21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -3074,10 +3140,10 @@
         <v>43455</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
@@ -3143,22 +3209,25 @@
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
+      <c r="AI22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -3168,10 +3237,10 @@
         <v>43384</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K23" t="n">
         <v>0.4</v>
@@ -3237,22 +3306,25 @@
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
+      <c r="AI23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -3262,10 +3334,10 @@
         <v>43385</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
@@ -3327,22 +3399,25 @@
       <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
+      <c r="AI24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -3352,10 +3427,10 @@
         <v>43469</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -3417,22 +3492,25 @@
       <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
+      <c r="AI25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -3442,10 +3520,10 @@
         <v>43966</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -3507,22 +3585,25 @@
       <c r="AF26"/>
       <c r="AG26"/>
       <c r="AH26"/>
+      <c r="AI26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -3532,10 +3613,10 @@
         <v>43469</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -3597,22 +3678,25 @@
       <c r="AF27"/>
       <c r="AG27"/>
       <c r="AH27"/>
+      <c r="AI27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -3622,10 +3706,10 @@
         <v>43404</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28" t="n">
         <v>0.25</v>
@@ -3691,22 +3775,25 @@
       <c r="AF28"/>
       <c r="AG28"/>
       <c r="AH28"/>
+      <c r="AI28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -3716,10 +3803,10 @@
         <v>43544</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -3781,22 +3868,25 @@
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
+      <c r="AI29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -3806,10 +3896,10 @@
         <v>43966</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
@@ -3871,22 +3961,25 @@
       <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -3896,10 +3989,10 @@
         <v>43458</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -3961,22 +4054,25 @@
       <c r="AF31"/>
       <c r="AG31"/>
       <c r="AH31"/>
+      <c r="AI31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -3986,10 +4082,10 @@
         <v>43423</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32" t="n">
         <v>0.5</v>
@@ -4055,22 +4151,25 @@
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
+      <c r="AI32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -4080,10 +4179,10 @@
         <v>43423</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33" t="n">
         <v>0.5</v>
@@ -4149,22 +4248,25 @@
       <c r="AF33"/>
       <c r="AG33"/>
       <c r="AH33"/>
+      <c r="AI33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -4174,10 +4276,10 @@
         <v>43495</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34" t="n">
         <v>3.962</v>
@@ -4243,22 +4345,25 @@
       <c r="AF34"/>
       <c r="AG34"/>
       <c r="AH34"/>
+      <c r="AI34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -4268,10 +4373,10 @@
         <v>43458</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
@@ -4333,22 +4438,25 @@
       <c r="AF35"/>
       <c r="AG35"/>
       <c r="AH35"/>
+      <c r="AI35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -4358,10 +4466,10 @@
         <v>43389</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
@@ -4423,22 +4531,25 @@
       <c r="AF36"/>
       <c r="AG36"/>
       <c r="AH36"/>
+      <c r="AI36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -4448,10 +4559,10 @@
         <v>43544</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -4513,22 +4624,25 @@
       <c r="AF37"/>
       <c r="AG37"/>
       <c r="AH37"/>
+      <c r="AI37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -4538,10 +4652,10 @@
         <v>43390</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -4607,22 +4721,25 @@
       <c r="AF38"/>
       <c r="AG38"/>
       <c r="AH38"/>
+      <c r="AI38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -4632,10 +4749,10 @@
         <v>43468</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K39" t="n">
         <v>8.5</v>
@@ -4701,22 +4818,25 @@
       <c r="AF39"/>
       <c r="AG39"/>
       <c r="AH39"/>
+      <c r="AI39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -4726,10 +4846,10 @@
         <v>43396</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -4791,22 +4911,25 @@
       <c r="AF40"/>
       <c r="AG40"/>
       <c r="AH40"/>
+      <c r="AI40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -4816,10 +4939,10 @@
         <v>43396</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -4881,22 +5004,25 @@
       <c r="AF41"/>
       <c r="AG41"/>
       <c r="AH41"/>
+      <c r="AI41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -4906,10 +5032,10 @@
         <v>43396</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -4971,22 +5097,25 @@
       <c r="AF42"/>
       <c r="AG42"/>
       <c r="AH42"/>
+      <c r="AI42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -4996,10 +5125,10 @@
         <v>43514</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K43" t="n">
         <v>0.3</v>
@@ -5065,22 +5194,25 @@
       <c r="AF43"/>
       <c r="AG43"/>
       <c r="AH43"/>
+      <c r="AI43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -5090,10 +5222,10 @@
         <v>43514</v>
       </c>
       <c r="I44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" t="s">
         <v>107</v>
-      </c>
-      <c r="J44" t="s">
-        <v>106</v>
       </c>
       <c r="K44" t="n">
         <v>0.3</v>
@@ -5159,22 +5291,25 @@
       <c r="AF44"/>
       <c r="AG44"/>
       <c r="AH44"/>
+      <c r="AI44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -5184,10 +5319,10 @@
         <v>43514</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45" t="n">
         <v>0.3</v>
@@ -5253,22 +5388,25 @@
       <c r="AF45"/>
       <c r="AG45"/>
       <c r="AH45"/>
+      <c r="AI45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -5278,10 +5416,10 @@
         <v>43514</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K46" t="n">
         <v>0.3</v>
@@ -5347,22 +5485,25 @@
       <c r="AF46"/>
       <c r="AG46"/>
       <c r="AH46"/>
+      <c r="AI46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -5372,10 +5513,10 @@
         <v>43521</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47" t="n">
         <v>0.175</v>
@@ -5441,22 +5582,25 @@
       <c r="AF47"/>
       <c r="AG47"/>
       <c r="AH47"/>
+      <c r="AI47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -5466,10 +5610,10 @@
         <v>43703</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K48" t="n">
         <v>0.5</v>
@@ -5535,22 +5679,25 @@
       <c r="AF48"/>
       <c r="AG48"/>
       <c r="AH48"/>
+      <c r="AI48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -5560,10 +5707,10 @@
         <v>43458</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -5625,22 +5772,25 @@
       <c r="AF49"/>
       <c r="AG49"/>
       <c r="AH49"/>
+      <c r="AI49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -5650,10 +5800,10 @@
         <v>43411</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50" t="n">
         <v>19.925922</v>
@@ -5719,22 +5869,25 @@
       <c r="AF50"/>
       <c r="AG50"/>
       <c r="AH50"/>
+      <c r="AI50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -5744,10 +5897,10 @@
         <v>43703</v>
       </c>
       <c r="I51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -5813,22 +5966,25 @@
       <c r="AF51"/>
       <c r="AG51"/>
       <c r="AH51"/>
+      <c r="AI51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -5838,10 +5994,10 @@
         <v>43411</v>
       </c>
       <c r="I52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52" t="n">
         <v>49.999333</v>
@@ -5907,22 +6063,25 @@
       <c r="AF52"/>
       <c r="AG52"/>
       <c r="AH52"/>
+      <c r="AI52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -5932,10 +6091,10 @@
         <v>43476</v>
       </c>
       <c r="I53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53" t="n">
         <v>9.469602</v>
@@ -6001,22 +6160,25 @@
       <c r="AF53"/>
       <c r="AG53"/>
       <c r="AH53"/>
+      <c r="AI53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -6026,10 +6188,10 @@
         <v>43650</v>
       </c>
       <c r="I54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K54"/>
       <c r="L54"/>
@@ -6091,22 +6253,25 @@
       <c r="AF54"/>
       <c r="AG54"/>
       <c r="AH54"/>
+      <c r="AI54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -6116,10 +6281,10 @@
         <v>43437</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K55" t="n">
         <v>0.5</v>
@@ -6185,22 +6350,25 @@
       <c r="AF55"/>
       <c r="AG55"/>
       <c r="AH55"/>
+      <c r="AI55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -6210,10 +6378,10 @@
         <v>43410</v>
       </c>
       <c r="I56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K56" t="n">
         <v>0.38</v>
@@ -6279,22 +6447,25 @@
       <c r="AF56"/>
       <c r="AG56"/>
       <c r="AH56"/>
+      <c r="AI56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -6304,10 +6475,10 @@
         <v>43410</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K57" t="n">
         <v>1.62</v>
@@ -6373,22 +6544,25 @@
       <c r="AF57"/>
       <c r="AG57"/>
       <c r="AH57"/>
+      <c r="AI57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -6398,10 +6572,10 @@
         <v>43410</v>
       </c>
       <c r="I58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K58" t="n">
         <v>0.12</v>
@@ -6467,22 +6641,25 @@
       <c r="AF58"/>
       <c r="AG58"/>
       <c r="AH58"/>
+      <c r="AI58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -6492,10 +6669,10 @@
         <v>43410</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K59" t="n">
         <v>0.05</v>
@@ -6561,22 +6738,25 @@
       <c r="AF59"/>
       <c r="AG59"/>
       <c r="AH59"/>
+      <c r="AI59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -6586,10 +6766,10 @@
         <v>43514</v>
       </c>
       <c r="I60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K60" t="n">
         <v>0.3</v>
@@ -6655,22 +6835,25 @@
       <c r="AF60"/>
       <c r="AG60"/>
       <c r="AH60"/>
+      <c r="AI60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -6680,10 +6863,10 @@
         <v>43514</v>
       </c>
       <c r="I61" t="s">
+        <v>141</v>
+      </c>
+      <c r="J61" t="s">
         <v>140</v>
-      </c>
-      <c r="J61" t="s">
-        <v>139</v>
       </c>
       <c r="K61" t="n">
         <v>0.3</v>
@@ -6749,22 +6932,25 @@
       <c r="AF61"/>
       <c r="AG61"/>
       <c r="AH61"/>
+      <c r="AI61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -6774,10 +6960,10 @@
         <v>43514</v>
       </c>
       <c r="I62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K62" t="n">
         <v>0.295198</v>
@@ -6843,22 +7029,25 @@
       <c r="AF62"/>
       <c r="AG62"/>
       <c r="AH62"/>
+      <c r="AI62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -6868,10 +7057,10 @@
         <v>43514</v>
       </c>
       <c r="I63" t="s">
+        <v>144</v>
+      </c>
+      <c r="J63" t="s">
         <v>143</v>
-      </c>
-      <c r="J63" t="s">
-        <v>142</v>
       </c>
       <c r="K63" t="n">
         <v>0.295198</v>
@@ -6937,22 +7126,25 @@
       <c r="AF63"/>
       <c r="AG63"/>
       <c r="AH63"/>
+      <c r="AI63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -6962,10 +7154,10 @@
         <v>43420</v>
       </c>
       <c r="I64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64"/>
       <c r="L64"/>
@@ -7027,22 +7219,25 @@
       <c r="AF64"/>
       <c r="AG64"/>
       <c r="AH64"/>
+      <c r="AI64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -7052,10 +7247,10 @@
         <v>43514</v>
       </c>
       <c r="I65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K65" t="n">
         <v>0.299941</v>
@@ -7121,22 +7316,25 @@
       <c r="AF65"/>
       <c r="AG65"/>
       <c r="AH65"/>
+      <c r="AI65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -7146,10 +7344,10 @@
         <v>43426</v>
       </c>
       <c r="I66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K66" t="n">
         <v>0.3</v>
@@ -7215,22 +7413,25 @@
       <c r="AF66"/>
       <c r="AG66"/>
       <c r="AH66"/>
+      <c r="AI66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -7240,10 +7441,10 @@
         <v>43413</v>
       </c>
       <c r="I67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67" t="n">
         <v>0.1</v>
@@ -7309,22 +7510,25 @@
       <c r="AF67"/>
       <c r="AG67"/>
       <c r="AH67"/>
+      <c r="AI67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -7334,10 +7538,10 @@
         <v>43514</v>
       </c>
       <c r="I68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K68" t="n">
         <v>0.373742</v>
@@ -7403,22 +7607,25 @@
       <c r="AF68"/>
       <c r="AG68"/>
       <c r="AH68"/>
+      <c r="AI68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -7428,10 +7635,10 @@
         <v>43514</v>
       </c>
       <c r="I69" t="s">
+        <v>156</v>
+      </c>
+      <c r="J69" t="s">
         <v>155</v>
-      </c>
-      <c r="J69" t="s">
-        <v>154</v>
       </c>
       <c r="K69" t="n">
         <v>0.373742</v>
@@ -7497,22 +7704,25 @@
       <c r="AF69"/>
       <c r="AG69"/>
       <c r="AH69"/>
+      <c r="AI69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -7522,10 +7732,10 @@
         <v>43420</v>
       </c>
       <c r="I70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K70" t="n">
         <v>0.1</v>
@@ -7591,22 +7801,25 @@
       <c r="AF70"/>
       <c r="AG70"/>
       <c r="AH70"/>
+      <c r="AI70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -7616,10 +7829,10 @@
         <v>43468</v>
       </c>
       <c r="I71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K71" t="n">
         <v>1.5</v>
@@ -7685,22 +7898,25 @@
       <c r="AF71"/>
       <c r="AG71"/>
       <c r="AH71"/>
+      <c r="AI71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -7710,10 +7926,10 @@
         <v>43517</v>
       </c>
       <c r="I72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72" t="n">
         <v>0.1</v>
@@ -7779,22 +7995,25 @@
       <c r="AF72"/>
       <c r="AG72"/>
       <c r="AH72"/>
+      <c r="AI72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -7804,10 +8023,10 @@
         <v>43458</v>
       </c>
       <c r="I73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
@@ -7869,22 +8088,25 @@
       <c r="AF73"/>
       <c r="AG73"/>
       <c r="AH73"/>
+      <c r="AI73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -7894,10 +8116,10 @@
         <v>43691</v>
       </c>
       <c r="I74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -7959,22 +8181,25 @@
       <c r="AF74"/>
       <c r="AG74"/>
       <c r="AH74"/>
+      <c r="AI74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -7984,10 +8209,10 @@
         <v>43458</v>
       </c>
       <c r="I75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -8049,22 +8274,25 @@
       <c r="AF75"/>
       <c r="AG75"/>
       <c r="AH75"/>
+      <c r="AI75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -8074,10 +8302,10 @@
         <v>43476</v>
       </c>
       <c r="I76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76" t="n">
         <v>35.474524</v>
@@ -8143,22 +8371,25 @@
       <c r="AF76"/>
       <c r="AG76"/>
       <c r="AH76"/>
+      <c r="AI76" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -8168,10 +8399,10 @@
         <v>43514</v>
       </c>
       <c r="I77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K77"/>
       <c r="L77"/>
@@ -8233,22 +8464,25 @@
       <c r="AF77"/>
       <c r="AG77"/>
       <c r="AH77"/>
+      <c r="AI77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -8258,10 +8492,10 @@
         <v>43461</v>
       </c>
       <c r="I78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -8323,22 +8557,25 @@
       <c r="AF78"/>
       <c r="AG78"/>
       <c r="AH78"/>
+      <c r="AI78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -8348,10 +8585,10 @@
         <v>43504</v>
       </c>
       <c r="I79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -8413,22 +8650,25 @@
       <c r="AF79"/>
       <c r="AG79"/>
       <c r="AH79"/>
+      <c r="AI79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -8438,10 +8678,10 @@
         <v>43467</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K80" t="n">
         <v>0.04</v>
@@ -8507,22 +8747,25 @@
       <c r="AF80"/>
       <c r="AG80"/>
       <c r="AH80"/>
+      <c r="AI80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -8532,10 +8775,10 @@
         <v>43662</v>
       </c>
       <c r="I81" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K81"/>
       <c r="L81"/>
@@ -8597,22 +8840,25 @@
       <c r="AF81"/>
       <c r="AG81"/>
       <c r="AH81"/>
+      <c r="AI81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -8622,10 +8868,10 @@
         <v>43662</v>
       </c>
       <c r="I82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K82"/>
       <c r="L82"/>
@@ -8687,22 +8933,25 @@
       <c r="AF82"/>
       <c r="AG82"/>
       <c r="AH82"/>
+      <c r="AI82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -8712,10 +8961,10 @@
         <v>43480</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83" t="n">
         <v>0.089</v>
@@ -8781,22 +9030,25 @@
       <c r="AF83"/>
       <c r="AG83"/>
       <c r="AH83"/>
+      <c r="AI83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -8806,10 +9058,10 @@
         <v>43480</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84" t="n">
         <v>0.1</v>
@@ -8875,22 +9127,25 @@
       <c r="AF84"/>
       <c r="AG84"/>
       <c r="AH84"/>
+      <c r="AI84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -8900,10 +9155,10 @@
         <v>43635</v>
       </c>
       <c r="I85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K85" t="n">
         <v>0.195671</v>
@@ -8969,22 +9224,25 @@
       <c r="AF85"/>
       <c r="AG85"/>
       <c r="AH85"/>
+      <c r="AI85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -8994,10 +9252,10 @@
         <v>43514</v>
       </c>
       <c r="I86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K86" t="n">
         <v>0.137053</v>
@@ -9063,22 +9321,25 @@
       <c r="AF86"/>
       <c r="AG86"/>
       <c r="AH86"/>
+      <c r="AI86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -9088,10 +9349,10 @@
         <v>43514</v>
       </c>
       <c r="I87" t="s">
+        <v>188</v>
+      </c>
+      <c r="J87" t="s">
         <v>187</v>
-      </c>
-      <c r="J87" t="s">
-        <v>186</v>
       </c>
       <c r="K87" t="n">
         <v>0.137053</v>
@@ -9157,22 +9418,25 @@
       <c r="AF87"/>
       <c r="AG87"/>
       <c r="AH87"/>
+      <c r="AI87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -9182,10 +9446,10 @@
         <v>43509</v>
       </c>
       <c r="I88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K88"/>
       <c r="L88"/>
@@ -9247,22 +9511,25 @@
       <c r="AF88"/>
       <c r="AG88"/>
       <c r="AH88"/>
+      <c r="AI88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -9272,10 +9539,10 @@
         <v>43607</v>
       </c>
       <c r="I89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89" t="n">
         <v>74.289151</v>
@@ -9341,22 +9608,25 @@
       <c r="AF89"/>
       <c r="AG89"/>
       <c r="AH89"/>
+      <c r="AI89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -9366,10 +9636,10 @@
         <v>43607</v>
       </c>
       <c r="I90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90" t="n">
         <v>79.909732</v>
@@ -9435,22 +9705,25 @@
       <c r="AF90"/>
       <c r="AG90"/>
       <c r="AH90"/>
+      <c r="AI90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -9460,10 +9733,10 @@
         <v>43514</v>
       </c>
       <c r="I91" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K91" t="n">
         <v>1.225</v>
@@ -9529,22 +9802,25 @@
       <c r="AF91"/>
       <c r="AG91"/>
       <c r="AH91"/>
+      <c r="AI91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -9554,10 +9830,10 @@
         <v>43599</v>
       </c>
       <c r="I92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K92" t="n">
         <v>0.9</v>
@@ -9623,22 +9899,25 @@
       <c r="AF92"/>
       <c r="AG92"/>
       <c r="AH92"/>
+      <c r="AI92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -9648,10 +9927,10 @@
         <v>43538</v>
       </c>
       <c r="I93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93" t="n">
         <v>19.933127</v>
@@ -9717,22 +9996,25 @@
       <c r="AF93"/>
       <c r="AG93"/>
       <c r="AH93"/>
+      <c r="AI93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -9742,10 +10024,10 @@
         <v>43522</v>
       </c>
       <c r="I94" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K94" t="n">
         <v>2.448319</v>
@@ -9811,22 +10093,25 @@
       <c r="AF94"/>
       <c r="AG94"/>
       <c r="AH94"/>
+      <c r="AI94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -9836,10 +10121,10 @@
         <v>43522</v>
       </c>
       <c r="I95" t="s">
+        <v>200</v>
+      </c>
+      <c r="J95" t="s">
         <v>199</v>
-      </c>
-      <c r="J95" t="s">
-        <v>198</v>
       </c>
       <c r="K95" t="n">
         <v>0.195439</v>
@@ -9905,22 +10190,25 @@
       <c r="AF95"/>
       <c r="AG95"/>
       <c r="AH95"/>
+      <c r="AI95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -9930,10 +10218,10 @@
         <v>43522</v>
       </c>
       <c r="I96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K96" t="n">
         <v>0.841301</v>
@@ -9999,22 +10287,25 @@
       <c r="AF96"/>
       <c r="AG96"/>
       <c r="AH96"/>
+      <c r="AI96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -10024,10 +10315,10 @@
         <v>43605</v>
       </c>
       <c r="I97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97" t="n">
         <v>3.973265</v>
@@ -10093,22 +10384,25 @@
       <c r="AF97"/>
       <c r="AG97"/>
       <c r="AH97"/>
+      <c r="AI97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -10118,10 +10412,10 @@
         <v>43635</v>
       </c>
       <c r="I98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K98" t="n">
         <v>0.8</v>
@@ -10187,22 +10481,25 @@
       <c r="AF98"/>
       <c r="AG98"/>
       <c r="AH98"/>
+      <c r="AI98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -10212,10 +10509,10 @@
         <v>43635</v>
       </c>
       <c r="I99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K99" t="n">
         <v>0.2</v>
@@ -10281,22 +10578,25 @@
       <c r="AF99"/>
       <c r="AG99"/>
       <c r="AH99"/>
+      <c r="AI99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -10306,10 +10606,10 @@
         <v>43612</v>
       </c>
       <c r="I100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100" t="n">
         <v>0.1645</v>
@@ -10375,22 +10675,25 @@
       <c r="AF100"/>
       <c r="AG100"/>
       <c r="AH100"/>
+      <c r="AI100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -10400,10 +10703,10 @@
         <v>43668</v>
       </c>
       <c r="I101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K101" t="n">
         <v>0.2</v>
@@ -10469,22 +10772,25 @@
       <c r="AF101"/>
       <c r="AG101"/>
       <c r="AH101"/>
+      <c r="AI101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -10494,10 +10800,10 @@
         <v>43668</v>
       </c>
       <c r="I102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K102" t="n">
         <v>0.2</v>
@@ -10563,22 +10869,25 @@
       <c r="AF102"/>
       <c r="AG102"/>
       <c r="AH102"/>
+      <c r="AI102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -10588,10 +10897,10 @@
         <v>43668</v>
       </c>
       <c r="I103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K103" t="n">
         <v>0.6</v>
@@ -10657,22 +10966,25 @@
       <c r="AF103"/>
       <c r="AG103"/>
       <c r="AH103"/>
+      <c r="AI103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -10682,10 +10994,10 @@
         <v>43697</v>
       </c>
       <c r="I104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104" t="n">
         <v>992.92</v>
@@ -10751,22 +11063,25 @@
       <c r="AF104"/>
       <c r="AG104"/>
       <c r="AH104"/>
+      <c r="AI104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -10776,10 +11091,10 @@
         <v>43697</v>
       </c>
       <c r="I105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105" t="n">
         <v>1.5</v>
@@ -10845,22 +11160,25 @@
       <c r="AF105"/>
       <c r="AG105"/>
       <c r="AH105"/>
+      <c r="AI105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -10870,10 +11188,10 @@
         <v>43697</v>
       </c>
       <c r="I106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106" t="n">
         <v>0.157903</v>
@@ -10939,22 +11257,25 @@
       <c r="AF106"/>
       <c r="AG106"/>
       <c r="AH106"/>
+      <c r="AI106" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -10964,10 +11285,10 @@
         <v>43697</v>
       </c>
       <c r="I107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K107" t="n">
         <v>0.1</v>
@@ -11033,22 +11354,25 @@
       <c r="AF107"/>
       <c r="AG107"/>
       <c r="AH107"/>
+      <c r="AI107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -11058,10 +11382,10 @@
         <v>43697</v>
       </c>
       <c r="I108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K108" t="n">
         <v>0.75</v>
@@ -11127,22 +11451,25 @@
       <c r="AF108"/>
       <c r="AG108"/>
       <c r="AH108"/>
+      <c r="AI108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -11152,10 +11479,10 @@
         <v>43664</v>
       </c>
       <c r="I109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109" t="n">
         <v>1.5</v>
@@ -11221,22 +11548,25 @@
       <c r="AF109"/>
       <c r="AG109"/>
       <c r="AH109"/>
+      <c r="AI109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -11246,10 +11576,10 @@
         <v>43759</v>
       </c>
       <c r="I110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110" t="n">
         <v>0.335</v>
@@ -11315,22 +11645,25 @@
       <c r="AF110"/>
       <c r="AG110"/>
       <c r="AH110"/>
+      <c r="AI110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -11340,10 +11673,10 @@
         <v>43759</v>
       </c>
       <c r="I111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111" t="n">
         <v>0.065</v>
@@ -11409,22 +11742,25 @@
       <c r="AF111"/>
       <c r="AG111"/>
       <c r="AH111"/>
+      <c r="AI111" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -11434,10 +11770,10 @@
         <v>43759</v>
       </c>
       <c r="I112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112" t="n">
         <v>0.164989</v>
@@ -11503,22 +11839,25 @@
       <c r="AF112"/>
       <c r="AG112"/>
       <c r="AH112"/>
+      <c r="AI112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -11528,10 +11867,10 @@
         <v>43759</v>
       </c>
       <c r="I113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113" t="n">
         <v>0.078489</v>
@@ -11597,22 +11936,25 @@
       <c r="AF113"/>
       <c r="AG113"/>
       <c r="AH113"/>
+      <c r="AI113" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -11622,10 +11964,10 @@
         <v>43759</v>
       </c>
       <c r="I114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114" t="n">
         <v>0.108882</v>
@@ -11691,22 +12033,25 @@
       <c r="AF114"/>
       <c r="AG114"/>
       <c r="AH114"/>
+      <c r="AI114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -11716,10 +12061,10 @@
         <v>43759</v>
       </c>
       <c r="I115" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K115" t="n">
         <v>0.488266</v>
@@ -11785,22 +12130,25 @@
       <c r="AF115"/>
       <c r="AG115"/>
       <c r="AH115"/>
+      <c r="AI115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -11810,10 +12158,10 @@
         <v>43759</v>
       </c>
       <c r="I116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116" t="n">
         <v>0.31</v>
@@ -11879,22 +12227,25 @@
       <c r="AF116"/>
       <c r="AG116"/>
       <c r="AH116"/>
+      <c r="AI116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -11904,10 +12255,10 @@
         <v>43759</v>
       </c>
       <c r="I117" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117" t="n">
         <v>0.5</v>
@@ -11973,22 +12324,25 @@
       <c r="AF117"/>
       <c r="AG117"/>
       <c r="AH117"/>
+      <c r="AI117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -11998,10 +12352,10 @@
         <v>43759</v>
       </c>
       <c r="I118" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118" t="n">
         <v>1.6</v>
@@ -12067,22 +12421,25 @@
       <c r="AF118"/>
       <c r="AG118"/>
       <c r="AH118"/>
+      <c r="AI118" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -12092,10 +12449,10 @@
         <v>43754</v>
       </c>
       <c r="I119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119"/>
       <c r="L119"/>
@@ -12157,22 +12514,25 @@
       <c r="AF119"/>
       <c r="AG119"/>
       <c r="AH119"/>
+      <c r="AI119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -12182,10 +12542,10 @@
         <v>43845</v>
       </c>
       <c r="I120" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K120" t="n">
         <v>29.842219</v>
@@ -12251,22 +12611,25 @@
       <c r="AF120"/>
       <c r="AG120"/>
       <c r="AH120"/>
+      <c r="AI120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E121" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -12276,10 +12639,10 @@
         <v>43822</v>
       </c>
       <c r="I121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K121" t="n">
         <v>0.1</v>
@@ -12345,22 +12708,25 @@
       <c r="AF121"/>
       <c r="AG121"/>
       <c r="AH121"/>
+      <c r="AI121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E122" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -12370,10 +12736,10 @@
         <v>43822</v>
       </c>
       <c r="I122" t="s">
+        <v>228</v>
+      </c>
+      <c r="J122" t="s">
         <v>227</v>
-      </c>
-      <c r="J122" t="s">
-        <v>226</v>
       </c>
       <c r="K122" t="n">
         <v>0.09975</v>
@@ -12439,22 +12805,25 @@
       <c r="AF122"/>
       <c r="AG122"/>
       <c r="AH122"/>
+      <c r="AI122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -12464,10 +12833,10 @@
         <v>43888</v>
       </c>
       <c r="I123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K123" t="n">
         <v>0.3</v>
@@ -12533,22 +12902,25 @@
       <c r="AF123"/>
       <c r="AG123"/>
       <c r="AH123"/>
+      <c r="AI123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -12558,10 +12930,10 @@
         <v>43888</v>
       </c>
       <c r="I124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K124" t="n">
         <v>0.780349</v>
@@ -12627,22 +12999,25 @@
       <c r="AF124"/>
       <c r="AG124"/>
       <c r="AH124"/>
+      <c r="AI124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E125" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -12652,10 +13027,10 @@
         <v>44036</v>
       </c>
       <c r="I125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K125" t="n">
         <v>0.997773</v>
@@ -12721,6 +13096,9 @@
       <c r="AF125"/>
       <c r="AG125"/>
       <c r="AH125"/>
+      <c r="AI125" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Indonesia_formatted.xlsx
+++ b/output/Indonesia_formatted.xlsx
@@ -13772,7 +13772,7 @@
       <c r="AH124"/>
       <c r="AI124"/>
       <c r="AJ124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK124" t="n">
         <v>199675</v>
@@ -13875,7 +13875,7 @@
       <c r="AH125"/>
       <c r="AI125"/>
       <c r="AJ125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK125" t="n">
         <v>199676</v>

--- a/output/Indonesia_formatted.xlsx
+++ b/output/Indonesia_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -125,6 +125,12 @@
     <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Recipient Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient Organisation Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDN</t>
   </si>
   <si>
@@ -146,6 +152,12 @@
     <t xml:space="preserve">2017-12471</t>
   </si>
   <si>
+    <t xml:space="preserve">Save the Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Italy, Government of</t>
   </si>
   <si>
@@ -155,6 +167,12 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">International Federation of Red Cross and Red Crescent Societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cross/Red Crescent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Support after earthquake and tsunami through the  Danish Emergency Management Agency (DEMA)</t>
   </si>
   <si>
@@ -167,6 +185,30 @@
     <t xml:space="preserve">Meeting basic reproductive health needs and protecting women, girls and affected population in Central Sulawesi disaster affected areas: Moving from emergency to the recovery and rehabilitation phase.</t>
   </si>
   <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulawesi earthquake and tsunami response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Relief Worldwide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondment of Disaster Waste Management Expert to UNDAC to support OCHA/UNDAC team in relation to the earthquake in Sulawesi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Civil Contingencies Agency (MSB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ireland, Government of</t>
   </si>
   <si>
@@ -176,45 +218,78 @@
     <t xml:space="preserve">PLAN ERFS 2018</t>
   </si>
   <si>
+    <t xml:space="preserve">Plan Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanitarian response to affected population. Local implementation partner; IFRC / Palang Merah Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">To save lives and alleviate suffering</t>
   </si>
   <si>
     <t xml:space="preserve">WOV ERFS 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humanitarian response to affected population. Local implementation partner; IFRC / Palang Merah Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondment of Disaster Waste Management Expert to UNDAC to support OCHA/UNDAC team in relation to the earthquake in Sulawesi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulawesi earthquake and tsunami response.</t>
+    <t xml:space="preserve">World Vision Ireland</t>
   </si>
   <si>
     <t xml:space="preserve">Netherlands, Government of</t>
   </si>
   <si>
+    <t xml:space="preserve">Dutch Relief Alliance allocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Vision International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEARFUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFAM Netherlands (NOVIB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catholic Organisation for Relief and Development Aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOA</t>
+  </si>
+  <si>
     <t xml:space="preserve">For Dutch Relief Alliance's Indonesia Joint Operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Dutch Relief Alliance allocation</t>
+    <t xml:space="preserve">Dutch Relief Alliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARE Netherlands</t>
   </si>
   <si>
     <t xml:space="preserve">Jersey Overseas Aid</t>
   </si>
   <si>
+    <t xml:space="preserve">Provide WASH, nutrition and protective services to 12,000 children in the aftermath of the Sulawesi tsunami / earthquake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency search, rescue and retrieval, and medical and health services (including referral services, food, non-food relief, emergency shelter and safe water) in response to the Sulawesi earthquake / tsunami appeal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide WASH, nutrition and protective services to 12,000 children in the aftermath of the Sulawesi tsunami / earthquake.</t>
+    <t xml:space="preserve">British Red Cross</t>
   </si>
   <si>
     <t xml:space="preserve">Humanitarian assistance (Shelter &amp; WASH) for those affected by the Sulawesi tsunami / earthquake.</t>
   </si>
   <si>
+    <t xml:space="preserve">CARE-UK</t>
+  </si>
+  <si>
     <t xml:space="preserve">To ensure life-saving protection, psycho-social well-being and nutritional support for families and the most vulnerable children, including unaccompanied and separated children (UASC), impacted by the Sulawesi earthquake and tsunami.</t>
   </si>
   <si>
@@ -245,6 +320,9 @@
     <t xml:space="preserve">18-RR-FPA-044</t>
   </si>
   <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ensuring lifesaving sexual and reproductive health services to women and young people affected by the Sulawesi Earthquake and Tsunami response</t>
   </si>
   <si>
@@ -257,34 +335,49 @@
     <t xml:space="preserve">IFRC 18 01</t>
   </si>
   <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In response to the Sulawesi Earthquakes and Tsunami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia/Earthquake-2019: Protection,Shelter and Settlements ( USAID/OFDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720FDA19IO00002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency support to restore food production and livelihoods of vulnerable households affected by the earthquake and tsunami in Central Sulawesi, Indonesia</t>
   </si>
   <si>
     <t xml:space="preserve">18-RR-FAO-029</t>
   </si>
   <si>
+    <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid Response Mechanism. Emergency response to Sulawesi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Penting Dan Kritis Waktu: Removing Hazards and Enabling the Provision of Critical Emergency Services Through Dignified Work</t>
   </si>
   <si>
     <t xml:space="preserve">18-RR-UDP-012</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia/Earthquake-2019: Protection,Shelter and Settlements ( USAID/OFDA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720FDA19IO00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In response to the Sulawesi Earthquakes and Tsunami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapid Response Mechanism. Emergency response to Sulawesi.</t>
+    <t xml:space="preserve">United Nations Development Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARE Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia/Earthquake-2019: Logistics Support and Relief Commodities ( USAID/OFDA)</t>
@@ -293,55 +386,65 @@
     <t xml:space="preserve">7200AA19C00001</t>
   </si>
   <si>
+    <t xml:space="preserve">AIR CHARTER SERVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private organization/foundation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rapid life-saving support to children in tsunami and earthquake affected area of Central Sulawesi</t>
   </si>
   <si>
     <t xml:space="preserve">18-RR-CEF-108</t>
   </si>
   <si>
+    <t xml:space="preserve">Austria, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To support the affected population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID.7.08.47/0001-VII.3/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency assistance Indonesia earthquake. Addendum 5-2018 Indonesia earthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QZA-18/0130-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">Humanitarian Logistics Coordination for Sulawesi Earthquake and Tsunami Response</t>
   </si>
   <si>
     <t xml:space="preserve">18-RR-WFP-063</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To support the affected population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID.7.08.47/0001-VII.3/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency assistance Indonesia earthquake. Addendum 5-2018 Indonesia earthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QZA-18/0130-44</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lifesaving Emergency Shelter and CCCM Response for Earthquake and Tsunami affected population in Central Sulawesi</t>
   </si>
   <si>
     <t xml:space="preserve">18-RR-IOM-034</t>
   </si>
   <si>
-    <t xml:space="preserve">Improving access to life-saving essential medicines, medical services and prevention and control of communicable disease in the earthquake tsunami and land liquefaction on Central Sulawesi population affected area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-RR-WHO-043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelter assistance for the most vulnerable persons affected by the Central Sulawesi Earthquake and Tsunami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-RR-HCR-033</t>
+    <t xml:space="preserve">International Organization for Migration</t>
   </si>
   <si>
     <t xml:space="preserve">Swiss Solidarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Response after Earthquake and Tsunami : Food Aid &amp; Non Food Items
+:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290.030 / 441381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Red Cross</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency relief support to disaster-affected people in Sulawesi: Food Aid &amp; Non Food Items
@@ -351,6 +454,9 @@
     <t xml:space="preserve">290.029 / p180083</t>
   </si>
   <si>
+    <t xml:space="preserve">Caritas Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency relief support to disaster-affected people in Sulawesi:Water, Sanitation &amp; Hygiene Promotion
 :</t>
   </si>
@@ -359,62 +465,126 @@
 :</t>
   </si>
   <si>
-    <t xml:space="preserve">Emergency Response after Earthquake and Tsunami : Food Aid &amp; Non Food Items
+    <t xml:space="preserve">Shelter assistance for the most vulnerable persons affected by the Central Sulawesi Earthquake and Tsunami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-RR-HCR-033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations High Commissioner for Refugees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving access to life-saving essential medicines, medical services and prevention and control of communicable disease in the earthquake tsunami and land liquefaction on Central Sulawesi population affected area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-RR-WHO-043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Through Spanish Agency for International Development Cooperation - AECID). Provide shelter items: tents. In kind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanitarian Assistance to most vulnerable population affected by devastating Earthquake and Tsunami in Sulawesi, Indonesia (ECHO/DRF/BUD/2018/91017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO/DRF/BUD/2018/91017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventist Development and Relief Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water, Sanitation and Hygiene,Protection,Shelter and Settlements ( USAID/OFDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS 2, FY 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Relief Distribution Project in Dongala, Sulawesi Island, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Neighbours Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution of Relief Items and Drinkable Water to the Earthquake and Tsunami Affected Population in Sulawesi Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peace Winds Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-sectoral emergency assistance to the earthquake and tsunami affected population in Palu, Sigi and Donggala in the province of Sulawesi, Indonesia (ECHO/DRF/BUD/2018/91018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO/DRF/BUD/2018/91018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agency for Technical Cooperation and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanitarian aid for medical support and food/NFI distribution to refugees - Earthquake in Central Sulawesi, Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Medical Volunteers Japan Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Cannot Wait Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-establish access to learning in Central Sulawesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-ECW-022-UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia: MAF Sulawesi Earthquake relief flights through HA-EAA (7F-10170.01.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7F-10170.01.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET earthquake Sulawesi (7FR-10170.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7FR-10170.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Development Cooperation/Swiss Humanitarian Aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesien: SET Erdbeben Sulawesi September 2018 (7F-10170.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7F-10170.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesien: SET Erdbeben Sulawesi September 2018 (Z7H314300091)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z7H314300091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Response for Children Affected by Indonesia's Sulawesi Earthquake and Tsunami: Food Aid &amp; Non Food Items through SC Switzerland
 :</t>
   </si>
   <si>
-    <t xml:space="preserve">290.030 / 441381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Through Spanish Agency for International Development Cooperation - AECID). Provide shelter items: tents. In kind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humanitarian Assistance to most vulnerable population affected by devastating Earthquake and Tsunami in Sulawesi, Indonesia (ECHO/DRF/BUD/2018/91017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/DRF/BUD/2018/91017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation and Hygiene,Protection,Shelter and Settlements ( USAID/OFDA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS 2, FY 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Relief Distribution Project in Dongala, Sulawesi Island, Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-sectoral emergency assistance to the earthquake and tsunami affected population in Palu, Sigi and Donggala in the province of Sulawesi, Indonesia (ECHO/DRF/BUD/2018/91018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/DRF/BUD/2018/91018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Relief Items and Drinkable Water to the Earthquake and Tsunami Affected Population in Sulawesi Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humanitarian aid for medical support and food/NFI distribution to refugees - Earthquake in Central Sulawesi, Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education Cannot Wait Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-establish access to learning in Central Sulawesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-ECW-022-UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
+    <t xml:space="preserve">291.001 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Response for Children Affected by Indonesia's Sulawesi Earthquake and Tsunami: Water, Sanitation &amp; Hygiene Promotion
+:</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia - Contribution to IFRC Emergency Appeal ""Indonesia Earthquakes and
@@ -424,30 +594,6 @@
     <t xml:space="preserve">7F-10140.02</t>
   </si>
   <si>
-    <t xml:space="preserve">SET earthquake Sulawesi (7FR-10170.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7FR-10170.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesien: SET Erdbeben Sulawesi September 2018 (7F-10170.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7F-10170.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesien: SET Erdbeben Sulawesi September 2018 (Z7H314300091)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z7H314300091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia: MAF Sulawesi Earthquake relief flights through HA-EAA (7F-10170.01.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7F-10170.01.02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Urgent Lifesaving Support in the Aftermath of the Sulawesi Earthquake and Tsunami: Water, Sanitation &amp; Hygiene Promotion
 :</t>
   </si>
@@ -455,21 +601,13 @@
     <t xml:space="preserve">290.025 / IND200</t>
   </si>
   <si>
+    <t xml:space="preserve">MEDAIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Urgent Lifesaving Support in the Aftermath of the Sulawesi Earthquake and Tsunami: Food Aid &amp; Non Food Items
 :</t>
   </si>
   <si>
-    <t xml:space="preserve">Emergency Response for Children Affected by Indonesia's Sulawesi Earthquake and Tsunami: Food Aid &amp; Non Food Items through SC Switzerland
-:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291.001 /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Response for Children Affected by Indonesia's Sulawesi Earthquake and Tsunami: Water, Sanitation &amp; Hygiene Promotion
-:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belgium, Government of</t>
   </si>
   <si>
@@ -483,16 +621,25 @@
     <t xml:space="preserve">291.002 / 4600</t>
   </si>
   <si>
+    <t xml:space="preserve">Solidar Suisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aid to victims of Earthquake and Tsunami in Indonesia - Emergency Response Unit (ERU) Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnish Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regional Office for Asia and the Pacific [OCT 6275];[74554]</t>
   </si>
   <si>
     <t xml:space="preserve">[OCT 6275];[74554]</t>
   </si>
   <si>
-    <t xml:space="preserve">Finland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aid to victims of Earthquake and Tsunami in Indonesia - Emergency Response Unit (ERU) Deployment</t>
+    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
   </si>
   <si>
     <t xml:space="preserve">Life saving emergency response earthquake Sulawesi: Food Aid &amp; Non Food Items
@@ -502,10 +649,19 @@
     <t xml:space="preserve">291.003 / 636.355</t>
   </si>
   <si>
+    <t xml:space="preserve">EPER - Swiss Church Aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Life saving emergency response earthquake Sulawesi: Water, Sanitation &amp; Hygiene Promotion
 :</t>
   </si>
   <si>
+    <t xml:space="preserve">Emergency assistance Indonesia earthquake. Addendum 6-2018 Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QZA-18/0130-45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monaco, Government of</t>
   </si>
   <si>
@@ -513,12 +669,6 @@
   </si>
   <si>
     <t xml:space="preserve">No 22.14-201802763/ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency assistance Indonesia earthquake. Addendum 6-2018 Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QZA-18/0130-45</t>
   </si>
   <si>
     <t xml:space="preserve">Protection and access to education for boys and girls by the earthquake and tsunami of Central Sulawesi.</t>
@@ -546,13 +696,22 @@
     <t xml:space="preserve">Shelter Construction for Earthquake &amp; Tsunami Affected Families in Central Sulawesi</t>
   </si>
   <si>
+    <t xml:space="preserve">CWS Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">7200AA19F50001</t>
   </si>
   <si>
+    <t xml:space="preserve">Midwest Canvas Corporation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Singapore Red Cross Society</t>
   </si>
   <si>
     <t xml:space="preserve">Humanitarian aid to support those affected by the tsunami in Indonesia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan International Cooperation and Development Fund</t>
@@ -601,6 +760,9 @@
     <t xml:space="preserve">291.005 / P3872</t>
   </si>
   <si>
+    <t xml:space="preserve">CBM International (formerly Christian Blind Mission)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inclusive Health Services to Affected Population of Earthquake and Tsunami in Sulawesi: Health &amp; Medical Services
 :</t>
   </si>
@@ -608,6 +770,9 @@
     <t xml:space="preserve">7200AA19C00018</t>
   </si>
   <si>
+    <t xml:space="preserve">Lynden Air Cargo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shelter assistance to the Earthquake and Tsunami Affected Population in Sulawesi Island</t>
   </si>
   <si>
@@ -620,12 +785,18 @@
     <t xml:space="preserve">2017-12520</t>
   </si>
   <si>
+    <t xml:space="preserve">Danish Red Cross</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUB03</t>
   </si>
   <si>
     <t xml:space="preserve">Distribution of materials for constructing temporary shelters and child protection for tsunami and earthquake victims</t>
   </si>
   <si>
+    <t xml:space="preserve">PARCIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia (Kingdom of), Government of</t>
   </si>
   <si>
@@ -653,6 +824,9 @@
     <t xml:space="preserve">Monitoring and evaluation of projects implemented by JPF member NGOs in Lombok and Sulawesi, Indonesia</t>
   </si>
   <si>
+    <t xml:space="preserve">Japan Platform</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transitional Shelter and WASH for Earthquake Affected Households</t>
   </si>
   <si>
@@ -707,21 +881,24 @@
     <t xml:space="preserve">New Zealand, Government of</t>
   </si>
   <si>
+    <t xml:space="preserve">Support for the deployment of a NZ Red Cross telecommunications and IT surge team to support Indonesian Red Cross efforts following the Sulawesi earthquake and tsunami.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution of $750,00 to support response and early recovery work of UNICEF.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fund to support the Government of Indonesia response to Sulawesi Earthquake and tsunami.</t>
   </si>
   <si>
+    <t xml:space="preserve">Deployment of relief supplies to Indonesia following the Sulawesi earthquake and tsunami.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contribution to IFRC Sulawesi Tsunami appeal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deployment of relief supplies to Indonesia following the Sulawesi earthquake and tsunami.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for the deployment of a NZ Red Cross telecommunications and IT surge team to support Indonesian Red Cross efforts following the Sulawesi earthquake and tsunami.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribution of $750,00 to support response and early recovery work of UNICEF.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grant contribution to the International Federation of the Red Cross (IFRC) for response activities following a tsunami in Sunda Strait, Indonesia.</t>
   </si>
   <si>
@@ -737,6 +914,30 @@
     <t xml:space="preserve">Support for response to Sulawesi</t>
   </si>
   <si>
+    <t xml:space="preserve">PALLADIUM INTERNATIONAL PTY LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Board of Nahdlatul Ulama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Planned Parenthood Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association of Southeast Asian Nations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-governmental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammadiyah Disaster Management Center</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indonesia/Earthquake-2019: Program Support (USAID/OFDA)</t>
   </si>
   <si>
@@ -750,6 +951,9 @@
   </si>
   <si>
     <t xml:space="preserve">AH/CIL/2019/0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARE International</t>
   </si>
   <si>
     <t xml:space="preserve">Recovery for households affected by the tsunami in 2018 - Indonesia (2020 portion)</t>
@@ -1220,22 +1424,28 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1245,10 +1455,10 @@
         <v>43384</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
         <v>0.4</v>
@@ -1323,22 +1533,28 @@
       <c r="AK2" t="n">
         <v>180909</v>
       </c>
+      <c r="AL2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1348,10 +1564,10 @@
         <v>43633</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
         <v>0.2</v>
@@ -1426,22 +1642,28 @@
       <c r="AK3" t="n">
         <v>188377</v>
       </c>
+      <c r="AL3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1451,10 +1673,10 @@
         <v>43383</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1529,22 +1751,26 @@
       <c r="AK4" t="n">
         <v>180993</v>
       </c>
+      <c r="AL4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1554,10 +1780,10 @@
         <v>43641</v>
       </c>
       <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -1632,54 +1858,60 @@
       <c r="AK5" t="n">
         <v>194303</v>
       </c>
+      <c r="AL5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
         <v>43378</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>43384</v>
+        <v>43613</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>0.073728</v>
+        <v>3.511466</v>
       </c>
       <c r="L6" t="n">
-        <v>0.855</v>
+        <v>8.814</v>
       </c>
       <c r="M6" t="n">
-        <v>0.086232</v>
+        <v>0.398396</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>0.086232</v>
+        <v>0.398396</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.086232</v>
+        <v>0.398396</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1724,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.086232</v>
+        <v>0.398396</v>
       </c>
       <c r="AG6"/>
       <c r="AH6"/>
@@ -1733,56 +1965,62 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>181423</v>
+        <v>188287</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
         <v>43378</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>43416</v>
+        <v>43455</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>0.105</v>
+        <v>0.21</v>
       </c>
       <c r="L7" t="n">
-        <v>0.855</v>
+        <v>8.814</v>
       </c>
       <c r="M7" t="n">
-        <v>0.122807</v>
+        <v>0.023826</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.122807</v>
+        <v>0.023826</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.122807</v>
+        <v>0.023826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1827,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.122807</v>
+        <v>0.023826</v>
       </c>
       <c r="AG7"/>
       <c r="AH7"/>
@@ -1836,56 +2074,62 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>183411</v>
+        <v>185555</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
         <v>43378</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>43455</v>
+        <v>43384</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K8" t="n">
-        <v>8.56</v>
+        <v>0.073728</v>
       </c>
       <c r="L8" t="n">
-        <v>8.814</v>
+        <v>0.855</v>
       </c>
       <c r="M8" t="n">
-        <v>0.971182</v>
+        <v>0.086232</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>0.971182</v>
+        <v>0.086232</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.971182</v>
+        <v>0.086232</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1930,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.971182</v>
+        <v>0.086232</v>
       </c>
       <c r="AG8"/>
       <c r="AH8"/>
@@ -1939,24 +2183,30 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>185533</v>
+        <v>181423</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1966,29 +2216,29 @@
         <v>43455</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>0.21</v>
+        <v>8.56</v>
       </c>
       <c r="L9" t="n">
         <v>8.814</v>
       </c>
       <c r="M9" t="n">
-        <v>0.023826</v>
+        <v>0.971182</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>0.023826</v>
+        <v>0.971182</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.023826</v>
+        <v>0.971182</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2033,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.023826</v>
+        <v>0.971182</v>
       </c>
       <c r="AG9"/>
       <c r="AH9"/>
@@ -2042,56 +2292,62 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>185555</v>
+        <v>185533</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
         <v>43378</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>43613</v>
+        <v>43416</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n">
-        <v>3.511466</v>
+        <v>0.105</v>
       </c>
       <c r="L10" t="n">
-        <v>8.814</v>
+        <v>0.855</v>
       </c>
       <c r="M10" t="n">
-        <v>0.398396</v>
+        <v>0.122807</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.398396</v>
+        <v>0.122807</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.398396</v>
+        <v>0.122807</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2136,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.398396</v>
+        <v>0.122807</v>
       </c>
       <c r="AG10"/>
       <c r="AH10"/>
@@ -2145,24 +2401,30 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>188287</v>
+        <v>183411</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -2172,29 +2434,29 @@
         <v>43769</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>0.152133</v>
+        <v>0.433037</v>
       </c>
       <c r="L11" t="n">
-        <v>0.914</v>
+        <v>0.9</v>
       </c>
       <c r="M11" t="n">
-        <v>0.166447</v>
+        <v>0.481152</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.166447</v>
+        <v>0.481152</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.166447</v>
+        <v>0.481152</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2239,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.166447</v>
+        <v>0.481152</v>
       </c>
       <c r="AG11"/>
       <c r="AH11"/>
@@ -2248,24 +2510,30 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>200379</v>
+        <v>200791</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -2275,29 +2543,29 @@
         <v>43769</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>0.481152</v>
+        <v>0.577383</v>
       </c>
       <c r="L12" t="n">
         <v>0.9</v>
       </c>
       <c r="M12" t="n">
-        <v>0.534613</v>
+        <v>0.641537</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.534613</v>
+        <v>0.641537</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.534613</v>
+        <v>0.641537</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2342,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.534613</v>
+        <v>0.641537</v>
       </c>
       <c r="AG12"/>
       <c r="AH12"/>
@@ -2351,24 +2619,30 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>200780</v>
+        <v>200789</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -2378,29 +2652,29 @@
         <v>43769</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>0.529268</v>
+        <v>0.384922</v>
       </c>
       <c r="L13" t="n">
         <v>0.9</v>
       </c>
       <c r="M13" t="n">
-        <v>0.588076</v>
+        <v>0.427691</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.588076</v>
+        <v>0.427691</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.588076</v>
+        <v>0.427691</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2445,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.588076</v>
+        <v>0.427691</v>
       </c>
       <c r="AG13"/>
       <c r="AH13"/>
@@ -2454,24 +2728,30 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>200782</v>
+        <v>200786</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -2481,29 +2761,29 @@
         <v>43769</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4798</v>
+        <v>0.529268</v>
       </c>
       <c r="L14" t="n">
         <v>0.9</v>
       </c>
       <c r="M14" t="n">
-        <v>0.533111</v>
+        <v>0.588076</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.533111</v>
+        <v>0.588076</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.533111</v>
+        <v>0.588076</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2548,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.533111</v>
+        <v>0.588076</v>
       </c>
       <c r="AG14"/>
       <c r="AH14"/>
@@ -2557,24 +2837,30 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>200785</v>
+        <v>200790</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2584,29 +2870,29 @@
         <v>43769</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>0.384922</v>
+        <v>0.4798</v>
       </c>
       <c r="L15" t="n">
         <v>0.9</v>
       </c>
       <c r="M15" t="n">
-        <v>0.427691</v>
+        <v>0.533111</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>0.427691</v>
+        <v>0.533111</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.427691</v>
+        <v>0.533111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2651,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.427691</v>
+        <v>0.533111</v>
       </c>
       <c r="AG15"/>
       <c r="AH15"/>
@@ -2660,24 +2946,30 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>200786</v>
+        <v>200785</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2687,29 +2979,29 @@
         <v>43769</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>0.577383</v>
+        <v>0.529268</v>
       </c>
       <c r="L16" t="n">
         <v>0.9</v>
       </c>
       <c r="M16" t="n">
-        <v>0.641537</v>
+        <v>0.588076</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0.641537</v>
+        <v>0.588076</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.641537</v>
+        <v>0.588076</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2754,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.641537</v>
+        <v>0.588076</v>
       </c>
       <c r="AG16"/>
       <c r="AH16"/>
@@ -2763,24 +3055,30 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>200789</v>
+        <v>200782</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2790,29 +3088,29 @@
         <v>43769</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>0.529268</v>
+        <v>0.433037</v>
       </c>
       <c r="L17" t="n">
         <v>0.9</v>
       </c>
       <c r="M17" t="n">
-        <v>0.588076</v>
+        <v>0.481152</v>
       </c>
       <c r="N17"/>
       <c r="O17" t="n">
-        <v>0.588076</v>
+        <v>0.481152</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.588076</v>
+        <v>0.481152</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2857,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.588076</v>
+        <v>0.481152</v>
       </c>
       <c r="AG17"/>
       <c r="AH17"/>
@@ -2866,24 +3164,30 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>200790</v>
+        <v>200792</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2893,29 +3197,29 @@
         <v>43769</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433037</v>
+        <v>0.152133</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9</v>
+        <v>0.914</v>
       </c>
       <c r="M18" t="n">
-        <v>0.481152</v>
+        <v>0.166447</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="n">
-        <v>0.481152</v>
+        <v>0.166447</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.481152</v>
+        <v>0.166447</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2960,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.481152</v>
+        <v>0.166447</v>
       </c>
       <c r="AG18"/>
       <c r="AH18"/>
@@ -2969,24 +3273,30 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>200791</v>
+        <v>200379</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2996,29 +3306,29 @@
         <v>43769</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>0.433037</v>
+        <v>0.481152</v>
       </c>
       <c r="L19" t="n">
         <v>0.9</v>
       </c>
       <c r="M19" t="n">
-        <v>0.481152</v>
+        <v>0.534613</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>0.481152</v>
+        <v>0.534613</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.481152</v>
+        <v>0.534613</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3063,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.481152</v>
+        <v>0.534613</v>
       </c>
       <c r="AG19"/>
       <c r="AH19"/>
@@ -3072,24 +3382,30 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>200792</v>
+        <v>200780</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -3099,29 +3415,29 @@
         <v>43426</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2</v>
+        <v>0.075</v>
       </c>
       <c r="L20" t="n">
         <v>0.782</v>
       </c>
       <c r="M20" t="n">
-        <v>0.255754</v>
+        <v>0.095908</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>0.255754</v>
+        <v>0.095908</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.255754</v>
+        <v>0.095908</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3166,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.255754</v>
+        <v>0.095908</v>
       </c>
       <c r="AG20"/>
       <c r="AH20"/>
@@ -3175,24 +3491,30 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>184220</v>
+        <v>184221</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -3202,29 +3524,29 @@
         <v>43426</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="L21" t="n">
         <v>0.782</v>
       </c>
       <c r="M21" t="n">
-        <v>0.095908</v>
+        <v>0.255754</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>0.095908</v>
+        <v>0.255754</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.095908</v>
+        <v>0.255754</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3269,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.095908</v>
+        <v>0.255754</v>
       </c>
       <c r="AG21"/>
       <c r="AH21"/>
@@ -3278,24 +3600,30 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>184221</v>
+        <v>184220</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -3305,10 +3633,10 @@
         <v>43426</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
         <v>0.075</v>
@@ -3383,22 +3711,28 @@
       <c r="AK22" t="n">
         <v>184222</v>
       </c>
+      <c r="AL22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -3408,10 +3742,10 @@
         <v>43455</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -3486,22 +3820,28 @@
       <c r="AK23" t="n">
         <v>185534</v>
       </c>
+      <c r="AL23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -3511,10 +3851,10 @@
         <v>43384</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K24" t="n">
         <v>0.4</v>
@@ -3589,22 +3929,28 @@
       <c r="AK24" t="n">
         <v>181419</v>
       </c>
+      <c r="AL24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -3614,10 +3960,10 @@
         <v>43385</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -3688,22 +4034,28 @@
       <c r="AK25" t="n">
         <v>181337</v>
       </c>
+      <c r="AL25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -3713,10 +4065,10 @@
         <v>43469</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -3787,22 +4139,28 @@
       <c r="AK26" t="n">
         <v>181338</v>
       </c>
+      <c r="AL26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -3812,10 +4170,10 @@
         <v>43966</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -3886,22 +4244,28 @@
       <c r="AK27" t="n">
         <v>181339</v>
       </c>
+      <c r="AL27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -3911,10 +4275,10 @@
         <v>43469</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -3985,22 +4349,28 @@
       <c r="AK28" t="n">
         <v>181347</v>
       </c>
+      <c r="AL28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -4010,10 +4380,10 @@
         <v>43404</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="K29" t="n">
         <v>0.25</v>
@@ -4088,50 +4458,60 @@
       <c r="AK29" t="n">
         <v>182473</v>
       </c>
+      <c r="AL29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>43544</v>
+        <v>43423</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30"/>
-      <c r="L30"/>
+        <v>50</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.313</v>
+      </c>
       <c r="M30" t="n">
-        <v>0.999926</v>
+        <v>0.380807</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.999926</v>
+        <v>0.380807</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.999926</v>
+        <v>0.380807</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4176,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.999926</v>
+        <v>0.380807</v>
       </c>
       <c r="AG30"/>
       <c r="AH30"/>
@@ -4185,52 +4565,58 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>181336</v>
+        <v>183810</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
-        <v>43383</v>
+        <v>43385</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>43966</v>
+        <v>43458</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>0.78576</v>
+        <v>0.75</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.78576</v>
+        <v>0.75</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.78576</v>
+        <v>0.75</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4275,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.78576</v>
+        <v>0.75</v>
       </c>
       <c r="AG31"/>
       <c r="AH31"/>
@@ -4284,52 +4670,58 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>181415</v>
+        <v>182926</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
-        <v>43385</v>
+        <v>43382</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>43458</v>
+        <v>43544</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="n">
-        <v>0.75</v>
+        <v>0.999926</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.75</v>
+        <v>0.999926</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.75</v>
+        <v>0.999926</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4374,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.75</v>
+        <v>0.999926</v>
       </c>
       <c r="AG32"/>
       <c r="AH32"/>
@@ -4383,56 +4775,62 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>182926</v>
+        <v>181336</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
         <v>43385</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>43423</v>
+        <v>43495</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5</v>
+        <v>3.962</v>
       </c>
       <c r="L33" t="n">
-        <v>1.313</v>
+        <v>8.814</v>
       </c>
       <c r="M33" t="n">
-        <v>0.380807</v>
+        <v>0.449512</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>0.380807</v>
+        <v>0.449512</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.380807</v>
+        <v>0.449512</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4477,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.380807</v>
+        <v>0.449512</v>
       </c>
       <c r="AG33"/>
       <c r="AH33"/>
@@ -4486,56 +4884,58 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>183810</v>
+        <v>185524</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
-        <v>43385</v>
+        <v>43383</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>43423</v>
+        <v>43966</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.313</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
       <c r="M34" t="n">
-        <v>0.380807</v>
+        <v>0.78576</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="n">
-        <v>0.380807</v>
+        <v>0.78576</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.380807</v>
+        <v>0.78576</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -4580,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.380807</v>
+        <v>0.78576</v>
       </c>
       <c r="AG34"/>
       <c r="AH34"/>
@@ -4589,56 +4989,62 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>183811</v>
+        <v>181415</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
         <v>43385</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>43495</v>
+        <v>43423</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>3.962</v>
+        <v>0.5</v>
       </c>
       <c r="L35" t="n">
-        <v>8.814</v>
+        <v>1.313</v>
       </c>
       <c r="M35" t="n">
-        <v>0.449512</v>
+        <v>0.380807</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>0.449512</v>
+        <v>0.380807</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.449512</v>
+        <v>0.380807</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4683,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.449512</v>
+        <v>0.380807</v>
       </c>
       <c r="AG35"/>
       <c r="AH35"/>
@@ -4692,24 +5098,30 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>185524</v>
+        <v>183811</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -4719,10 +5131,10 @@
         <v>43458</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
@@ -4793,22 +5205,28 @@
       <c r="AK36" t="n">
         <v>185652</v>
       </c>
+      <c r="AL36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -4818,10 +5236,10 @@
         <v>43389</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -4892,50 +5310,60 @@
       <c r="AK37" t="n">
         <v>181479</v>
       </c>
+      <c r="AL37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>43544</v>
+        <v>43390</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
-      </c>
-      <c r="K38"/>
-      <c r="L38"/>
+        <v>130</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.855</v>
+      </c>
       <c r="M38" t="n">
-        <v>1.200212</v>
+        <v>1.169591</v>
       </c>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>1.200212</v>
+        <v>1.169591</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.200212</v>
+        <v>1.169591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4980,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.200212</v>
+        <v>1.169591</v>
       </c>
       <c r="AG38"/>
       <c r="AH38"/>
@@ -4989,56 +5417,60 @@
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>181416</v>
-      </c>
+        <v>181725</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
         <v>43389</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>43390</v>
+        <v>43468</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="L39" t="n">
-        <v>0.855</v>
+        <v>8.123</v>
       </c>
       <c r="M39" t="n">
-        <v>1.169591</v>
+        <v>1.046411</v>
       </c>
       <c r="N39"/>
       <c r="O39" t="n">
-        <v>1.169591</v>
+        <v>1.046411</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.169591</v>
+        <v>1.046411</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5083,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.169591</v>
+        <v>1.046411</v>
       </c>
       <c r="AG39"/>
       <c r="AH39"/>
@@ -5092,56 +5524,58 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>181725</v>
+        <v>185988</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
-        <v>43389</v>
+        <v>43383</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>43468</v>
+        <v>43544</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8.123</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
       <c r="M40" t="n">
-        <v>1.046411</v>
+        <v>1.200212</v>
       </c>
       <c r="N40"/>
       <c r="O40" t="n">
-        <v>1.046411</v>
+        <v>1.200212</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.046411</v>
+        <v>1.200212</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5186,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.046411</v>
+        <v>1.200212</v>
       </c>
       <c r="AG40"/>
       <c r="AH40"/>
@@ -5195,24 +5629,30 @@
         <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>185988</v>
+        <v>181416</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -5222,10 +5662,10 @@
         <v>43396</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="J41" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5296,50 +5736,60 @@
       <c r="AK41" t="n">
         <v>181615</v>
       </c>
+      <c r="AL41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
-        <v>43388</v>
+        <v>43392</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>43396</v>
+        <v>43514</v>
       </c>
       <c r="I42" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="J42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
+        <v>142</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.989</v>
+      </c>
       <c r="M42" t="n">
-        <v>0.962874</v>
+        <v>0.303337</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>0.962874</v>
+        <v>0.303337</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.962874</v>
+        <v>0.303337</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -5384,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.962874</v>
+        <v>0.303337</v>
       </c>
       <c r="AG42"/>
       <c r="AH42"/>
@@ -5393,52 +5843,62 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>181608</v>
+        <v>187395</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>43396</v>
+        <v>43514</v>
       </c>
       <c r="I43" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43"/>
+        <v>145</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.989</v>
+      </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>0.303337</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>1.07</v>
+        <v>0.303337</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.07</v>
+        <v>0.303337</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -5483,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.07</v>
+        <v>0.303337</v>
       </c>
       <c r="AG43"/>
       <c r="AH43"/>
@@ -5492,24 +5952,30 @@
         <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>181773</v>
+        <v>187392</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -5519,10 +5985,10 @@
         <v>43514</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="J44" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="K44" t="n">
         <v>0.3</v>
@@ -5595,24 +6061,30 @@
         <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>187392</v>
+        <v>187393</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -5622,10 +6094,10 @@
         <v>43514</v>
       </c>
       <c r="I45" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="K45" t="n">
         <v>0.3</v>
@@ -5698,56 +6170,58 @@
         <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>187393</v>
+        <v>187394</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
-        <v>43392</v>
+        <v>43390</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>43514</v>
+        <v>43396</v>
       </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="J46" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.989</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
       <c r="M46" t="n">
-        <v>0.303337</v>
+        <v>1.07</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="n">
-        <v>0.303337</v>
+        <v>1.07</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.303337</v>
+        <v>1.07</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -5792,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.303337</v>
+        <v>1.07</v>
       </c>
       <c r="AG46"/>
       <c r="AH46"/>
@@ -5801,56 +6275,58 @@
         <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>187394</v>
+        <v>181773</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
-        <v>43392</v>
+        <v>43388</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>43514</v>
+        <v>43396</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.989</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47"/>
       <c r="M47" t="n">
-        <v>0.303337</v>
+        <v>0.962874</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.303337</v>
+        <v>0.962874</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.303337</v>
+        <v>0.962874</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -5895,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.303337</v>
+        <v>0.962874</v>
       </c>
       <c r="AG47"/>
       <c r="AH47"/>
@@ -5904,24 +6380,30 @@
         <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>187395</v>
+        <v>181608</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -5931,10 +6413,10 @@
         <v>43521</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
         <v>0.175</v>
@@ -6009,22 +6491,26 @@
       <c r="AK48" t="n">
         <v>187600</v>
       </c>
+      <c r="AL48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -6034,10 +6520,10 @@
         <v>43703</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="J49" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="K49" t="n">
         <v>0.5</v>
@@ -6112,22 +6598,28 @@
       <c r="AK49" t="n">
         <v>182478</v>
       </c>
+      <c r="AL49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -6137,10 +6629,10 @@
         <v>43458</v>
       </c>
       <c r="I50" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="K50"/>
       <c r="L50"/>
@@ -6211,22 +6703,28 @@
       <c r="AK50" t="n">
         <v>182927</v>
       </c>
+      <c r="AL50" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -6236,10 +6734,10 @@
         <v>43411</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K51" t="n">
         <v>19.925922</v>
@@ -6314,54 +6812,60 @@
       <c r="AK51" t="n">
         <v>183187</v>
       </c>
+      <c r="AL51" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
         <v>43402</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>43703</v>
+        <v>43411</v>
       </c>
       <c r="I52" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>49.999333</v>
       </c>
       <c r="L52" t="n">
-        <v>0.855</v>
+        <v>112.83</v>
       </c>
       <c r="M52" t="n">
-        <v>1.169591</v>
+        <v>0.443139</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="n">
-        <v>1.169591</v>
+        <v>0.443139</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.169591</v>
+        <v>0.443139</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -6406,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.169591</v>
+        <v>0.443139</v>
       </c>
       <c r="AG52"/>
       <c r="AH52"/>
@@ -6415,56 +6919,62 @@
         <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>182549</v>
+        <v>183205</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
         <v>43402</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>43411</v>
+        <v>43703</v>
       </c>
       <c r="I53" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="K53" t="n">
-        <v>49.999333</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>112.83</v>
+        <v>0.855</v>
       </c>
       <c r="M53" t="n">
-        <v>0.443139</v>
+        <v>1.169591</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>0.443139</v>
+        <v>1.169591</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.443139</v>
+        <v>1.169591</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -6509,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.443139</v>
+        <v>1.169591</v>
       </c>
       <c r="AG53"/>
       <c r="AH53"/>
@@ -6518,24 +7028,30 @@
         <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>183205</v>
+        <v>182549</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -6545,10 +7061,10 @@
         <v>43476</v>
       </c>
       <c r="I54" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
         <v>9.469602</v>
@@ -6623,22 +7139,28 @@
       <c r="AK54" t="n">
         <v>185611</v>
       </c>
+      <c r="AL54" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -6648,10 +7170,10 @@
         <v>43650</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="K55"/>
       <c r="L55"/>
@@ -6722,54 +7244,60 @@
       <c r="AK55" t="n">
         <v>195015</v>
       </c>
+      <c r="AL55" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
         <v>43404</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>43437</v>
+        <v>43410</v>
       </c>
       <c r="I56" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L56" t="n">
-        <v>0.865</v>
+        <v>0.989</v>
       </c>
       <c r="M56" t="n">
-        <v>0.578035</v>
+        <v>0.050556</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>0.578035</v>
+        <v>0.050556</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.578035</v>
+        <v>0.050556</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -6814,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.578035</v>
+        <v>0.050556</v>
       </c>
       <c r="AG56"/>
       <c r="AH56"/>
@@ -6823,24 +7351,28 @@
         <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>183111</v>
-      </c>
+        <v>183119</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -6850,10 +7382,10 @@
         <v>43410</v>
       </c>
       <c r="I57" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="K57" t="n">
         <v>0.38</v>
@@ -6928,22 +7460,28 @@
       <c r="AK57" t="n">
         <v>183112</v>
       </c>
+      <c r="AL57" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -6953,10 +7491,10 @@
         <v>43410</v>
       </c>
       <c r="I58" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="J58" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="K58" t="n">
         <v>1.62</v>
@@ -7031,22 +7569,28 @@
       <c r="AK58" t="n">
         <v>183113</v>
       </c>
+      <c r="AL58" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -7056,10 +7600,10 @@
         <v>43410</v>
       </c>
       <c r="I59" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="J59" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="K59" t="n">
         <v>0.12</v>
@@ -7134,54 +7678,60 @@
       <c r="AK59" t="n">
         <v>183114</v>
       </c>
+      <c r="AL59" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
         <v>43404</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>43410</v>
+        <v>43514</v>
       </c>
       <c r="I60" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="K60" t="n">
-        <v>0.05</v>
+        <v>0.295198</v>
       </c>
       <c r="L60" t="n">
-        <v>0.989</v>
+        <v>1.003</v>
       </c>
       <c r="M60" t="n">
-        <v>0.050556</v>
+        <v>0.294315</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>0.050556</v>
+        <v>0.294315</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.050556</v>
+        <v>0.294315</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -7226,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.050556</v>
+        <v>0.294315</v>
       </c>
       <c r="AG60"/>
       <c r="AH60"/>
@@ -7235,24 +7785,30 @@
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>183119</v>
+        <v>187398</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -7262,29 +7818,29 @@
         <v>43514</v>
       </c>
       <c r="I61" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="J61" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3</v>
+        <v>0.295198</v>
       </c>
       <c r="L61" t="n">
         <v>1.003</v>
       </c>
       <c r="M61" t="n">
-        <v>0.299103</v>
+        <v>0.294315</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>0.299103</v>
+        <v>0.294315</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.299103</v>
+        <v>0.294315</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -7329,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.299103</v>
+        <v>0.294315</v>
       </c>
       <c r="AG61"/>
       <c r="AH61"/>
@@ -7338,56 +7894,62 @@
         <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>187396</v>
+        <v>187399</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
         <v>43404</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>43514</v>
+        <v>43437</v>
       </c>
       <c r="I62" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="J62" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="K62" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L62" t="n">
-        <v>1.003</v>
+        <v>0.865</v>
       </c>
       <c r="M62" t="n">
-        <v>0.299103</v>
+        <v>0.578035</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>0.299103</v>
+        <v>0.578035</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.299103</v>
+        <v>0.578035</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -7432,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.299103</v>
+        <v>0.578035</v>
       </c>
       <c r="AG62"/>
       <c r="AH62"/>
@@ -7441,24 +8003,30 @@
         <v>0</v>
       </c>
       <c r="AK62" t="n">
-        <v>187397</v>
+        <v>183111</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -7468,29 +8036,29 @@
         <v>43514</v>
       </c>
       <c r="I63" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="J63" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="K63" t="n">
-        <v>0.295198</v>
+        <v>0.3</v>
       </c>
       <c r="L63" t="n">
         <v>1.003</v>
       </c>
       <c r="M63" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -7535,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="AG63"/>
       <c r="AH63"/>
@@ -7544,24 +8112,30 @@
         <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>187398</v>
+        <v>187396</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -7571,29 +8145,29 @@
         <v>43514</v>
       </c>
       <c r="I64" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="J64" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="K64" t="n">
-        <v>0.295198</v>
+        <v>0.3</v>
       </c>
       <c r="L64" t="n">
         <v>1.003</v>
       </c>
       <c r="M64" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -7638,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.294315</v>
+        <v>0.299103</v>
       </c>
       <c r="AG64"/>
       <c r="AH64"/>
@@ -7647,24 +8221,30 @@
         <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>187399</v>
+        <v>187397</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -7674,10 +8254,10 @@
         <v>43420</v>
       </c>
       <c r="I65" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K65"/>
       <c r="L65"/>
@@ -7748,22 +8328,28 @@
       <c r="AK65" t="n">
         <v>183745</v>
       </c>
+      <c r="AL65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -7773,10 +8359,10 @@
         <v>43514</v>
       </c>
       <c r="I66" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="J66" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="K66" t="n">
         <v>0.299941</v>
@@ -7851,48 +8437,54 @@
       <c r="AK66" t="n">
         <v>187400</v>
       </c>
+      <c r="AL66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
-        <v>43402</v>
+        <v>43412</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>43426</v>
+        <v>43413</v>
       </c>
       <c r="I67" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="J67" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L67" t="n">
-        <v>1.406</v>
+        <v>0.88</v>
       </c>
       <c r="M67" t="n">
-        <v>0.213371</v>
+        <v>0.113636</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0.213371</v>
+        <v>0.113636</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -7901,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>0.213371</v>
+        <v>0.113636</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -7943,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.213371</v>
+        <v>0.113636</v>
       </c>
       <c r="AG67"/>
       <c r="AH67"/>
@@ -7952,50 +8544,56 @@
         <v>0</v>
       </c>
       <c r="AK67" t="n">
-        <v>182471</v>
+        <v>183345</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
-        <v>43412</v>
+        <v>43402</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>43413</v>
+        <v>43426</v>
       </c>
       <c r="I68" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L68" t="n">
-        <v>0.88</v>
+        <v>1.406</v>
       </c>
       <c r="M68" t="n">
-        <v>0.113636</v>
+        <v>0.213371</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>0.113636</v>
+        <v>0.213371</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -8004,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0.113636</v>
+        <v>0.213371</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -8046,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.113636</v>
+        <v>0.213371</v>
       </c>
       <c r="AG68"/>
       <c r="AH68"/>
@@ -8055,24 +8653,30 @@
         <v>0</v>
       </c>
       <c r="AK68" t="n">
-        <v>183345</v>
+        <v>182471</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -8082,10 +8686,10 @@
         <v>43514</v>
       </c>
       <c r="I69" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="J69" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="K69" t="n">
         <v>0.373742</v>
@@ -8160,22 +8764,28 @@
       <c r="AK69" t="n">
         <v>187401</v>
       </c>
+      <c r="AL69" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -8185,10 +8795,10 @@
         <v>43514</v>
       </c>
       <c r="I70" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="J70" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="K70" t="n">
         <v>0.373742</v>
@@ -8263,48 +8873,54 @@
       <c r="AK70" t="n">
         <v>187402</v>
       </c>
+      <c r="AL70" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
         <v>43417</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>43420</v>
+        <v>43468</v>
       </c>
       <c r="I71" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="J71" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="L71" t="n">
-        <v>0.88</v>
+        <v>8.123</v>
       </c>
       <c r="M71" t="n">
-        <v>0.113636</v>
+        <v>0.184661</v>
       </c>
       <c r="N71"/>
       <c r="O71" t="n">
-        <v>0.113636</v>
+        <v>0.184661</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -8313,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.113636</v>
+        <v>0.184661</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -8355,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.113636</v>
+        <v>0.184661</v>
       </c>
       <c r="AG71"/>
       <c r="AH71"/>
@@ -8364,50 +8980,56 @@
         <v>0</v>
       </c>
       <c r="AK71" t="n">
-        <v>183734</v>
+        <v>185989</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
         <v>43417</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>43468</v>
+        <v>43420</v>
       </c>
       <c r="I72" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="J72" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="K72" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="L72" t="n">
-        <v>8.123</v>
+        <v>0.88</v>
       </c>
       <c r="M72" t="n">
-        <v>0.184661</v>
+        <v>0.113636</v>
       </c>
       <c r="N72"/>
       <c r="O72" t="n">
-        <v>0.184661</v>
+        <v>0.113636</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -8416,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0.184661</v>
+        <v>0.113636</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -8458,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.184661</v>
+        <v>0.113636</v>
       </c>
       <c r="AG72"/>
       <c r="AH72"/>
@@ -8467,24 +9089,30 @@
         <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>185989</v>
+        <v>183734</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -8494,10 +9122,10 @@
         <v>43517</v>
       </c>
       <c r="I73" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
         <v>0.1</v>
@@ -8572,22 +9200,28 @@
       <c r="AK73" t="n">
         <v>187510</v>
       </c>
+      <c r="AL73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -8597,10 +9231,10 @@
         <v>43458</v>
       </c>
       <c r="I74" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="J74" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -8671,22 +9305,28 @@
       <c r="AK74" t="n">
         <v>185655</v>
       </c>
+      <c r="AL74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -8696,10 +9336,10 @@
         <v>43691</v>
       </c>
       <c r="I75" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="J75" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -8770,22 +9410,28 @@
       <c r="AK75" t="n">
         <v>185656</v>
       </c>
+      <c r="AL75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -8795,10 +9441,10 @@
         <v>43458</v>
       </c>
       <c r="I76" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="J76" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -8869,22 +9515,28 @@
       <c r="AK76" t="n">
         <v>185654</v>
       </c>
+      <c r="AL76" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -8894,10 +9546,10 @@
         <v>43476</v>
       </c>
       <c r="I77" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
         <v>35.474524</v>
@@ -8972,22 +9624,28 @@
       <c r="AK77" t="n">
         <v>186270</v>
       </c>
+      <c r="AL77" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E78" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -8997,10 +9655,10 @@
         <v>43514</v>
       </c>
       <c r="I78" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="J78" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -9071,22 +9729,28 @@
       <c r="AK78" t="n">
         <v>187160</v>
       </c>
+      <c r="AL78" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -9096,10 +9760,10 @@
         <v>43461</v>
       </c>
       <c r="I79" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -9170,22 +9834,28 @@
       <c r="AK79" t="n">
         <v>185787</v>
       </c>
+      <c r="AL79" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E80" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -9195,10 +9865,10 @@
         <v>43504</v>
       </c>
       <c r="I80" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K80"/>
       <c r="L80"/>
@@ -9269,22 +9939,28 @@
       <c r="AK80" t="n">
         <v>187078</v>
       </c>
+      <c r="AL80" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -9294,10 +9970,10 @@
         <v>43467</v>
       </c>
       <c r="I81" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="J81" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="K81" t="n">
         <v>0.04</v>
@@ -9372,22 +10048,28 @@
       <c r="AK81" t="n">
         <v>185972</v>
       </c>
+      <c r="AL81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E82" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -9397,10 +10079,10 @@
         <v>43662</v>
       </c>
       <c r="I82" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="J82" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="K82"/>
       <c r="L82"/>
@@ -9471,22 +10153,28 @@
       <c r="AK82" t="n">
         <v>188735</v>
       </c>
+      <c r="AL82" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -9496,10 +10184,10 @@
         <v>43662</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="J83" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="K83"/>
       <c r="L83"/>
@@ -9570,22 +10258,28 @@
       <c r="AK83" t="n">
         <v>195501</v>
       </c>
+      <c r="AL83" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -9595,10 +10289,10 @@
         <v>43480</v>
       </c>
       <c r="I84" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K84" t="n">
         <v>0.089</v>
@@ -9673,22 +10367,26 @@
       <c r="AK84" t="n">
         <v>186385</v>
       </c>
+      <c r="AL84" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -9698,10 +10396,10 @@
         <v>43480</v>
       </c>
       <c r="I85" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K85" t="n">
         <v>0.1</v>
@@ -9776,22 +10474,26 @@
       <c r="AK85" t="n">
         <v>186386</v>
       </c>
+      <c r="AL85" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -9801,10 +10503,10 @@
         <v>43635</v>
       </c>
       <c r="I86" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="J86" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="K86" t="n">
         <v>0.195671</v>
@@ -9879,22 +10581,28 @@
       <c r="AK86" t="n">
         <v>193749</v>
       </c>
+      <c r="AL86" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -9904,10 +10612,10 @@
         <v>43514</v>
       </c>
       <c r="I87" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="J87" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="K87" t="n">
         <v>0.137053</v>
@@ -9982,22 +10690,28 @@
       <c r="AK87" t="n">
         <v>187403</v>
       </c>
+      <c r="AL87" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -10007,10 +10721,10 @@
         <v>43514</v>
       </c>
       <c r="I88" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="J88" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="K88" t="n">
         <v>0.137053</v>
@@ -10085,22 +10799,28 @@
       <c r="AK88" t="n">
         <v>187404</v>
       </c>
+      <c r="AL88" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -10110,10 +10830,10 @@
         <v>43509</v>
       </c>
       <c r="I89" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="J89" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -10184,22 +10904,28 @@
       <c r="AK89" t="n">
         <v>187159</v>
       </c>
+      <c r="AL89" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -10209,10 +10935,10 @@
         <v>43607</v>
       </c>
       <c r="I90" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K90" t="n">
         <v>74.289151</v>
@@ -10287,22 +11013,28 @@
       <c r="AK90" t="n">
         <v>191710</v>
       </c>
+      <c r="AL90" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -10312,10 +11044,10 @@
         <v>43607</v>
       </c>
       <c r="I91" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K91" t="n">
         <v>79.909732</v>
@@ -10390,22 +11122,28 @@
       <c r="AK91" t="n">
         <v>191712</v>
       </c>
+      <c r="AL91" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -10415,10 +11153,10 @@
         <v>43514</v>
       </c>
       <c r="I92" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="J92" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="K92" t="n">
         <v>1.225</v>
@@ -10493,22 +11231,28 @@
       <c r="AK92" t="n">
         <v>187334</v>
       </c>
+      <c r="AL92" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -10518,10 +11262,10 @@
         <v>43599</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J93" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="K93" t="n">
         <v>0.9</v>
@@ -10596,22 +11340,28 @@
       <c r="AK93" t="n">
         <v>191130</v>
       </c>
+      <c r="AL93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E94" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -10621,10 +11371,10 @@
         <v>43538</v>
       </c>
       <c r="I94" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K94" t="n">
         <v>19.933127</v>
@@ -10699,22 +11449,28 @@
       <c r="AK94" t="n">
         <v>188229</v>
       </c>
+      <c r="AL94" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E95" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -10724,10 +11480,10 @@
         <v>43522</v>
       </c>
       <c r="I95" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="J95" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="K95" t="n">
         <v>2.448319</v>
@@ -10802,22 +11558,28 @@
       <c r="AK95" t="n">
         <v>187753</v>
       </c>
+      <c r="AL95" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -10827,10 +11589,10 @@
         <v>43522</v>
       </c>
       <c r="I96" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="J96" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="K96" t="n">
         <v>0.195439</v>
@@ -10905,22 +11667,28 @@
       <c r="AK96" t="n">
         <v>187754</v>
       </c>
+      <c r="AL96" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E97" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -10930,10 +11698,10 @@
         <v>43522</v>
       </c>
       <c r="I97" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="J97" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="K97" t="n">
         <v>0.841301</v>
@@ -11008,22 +11776,28 @@
       <c r="AK97" t="n">
         <v>187755</v>
       </c>
+      <c r="AL97" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -11033,10 +11807,10 @@
         <v>43536</v>
       </c>
       <c r="I98" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="J98" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="K98"/>
       <c r="L98"/>
@@ -11107,22 +11881,28 @@
       <c r="AK98" t="n">
         <v>188133</v>
       </c>
+      <c r="AL98" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -11132,10 +11912,10 @@
         <v>43605</v>
       </c>
       <c r="I99" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K99" t="n">
         <v>3.973265</v>
@@ -11210,22 +11990,28 @@
       <c r="AK99" t="n">
         <v>191364</v>
       </c>
+      <c r="AL99" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -11235,10 +12021,10 @@
         <v>43635</v>
       </c>
       <c r="I100" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="J100" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="K100" t="n">
         <v>0.8</v>
@@ -11313,22 +12099,28 @@
       <c r="AK100" t="n">
         <v>193747</v>
       </c>
+      <c r="AL100" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -11338,10 +12130,10 @@
         <v>43635</v>
       </c>
       <c r="I101" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="J101" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="K101" t="n">
         <v>0.2</v>
@@ -11416,22 +12208,28 @@
       <c r="AK101" t="n">
         <v>193748</v>
       </c>
+      <c r="AL101" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -11441,10 +12239,10 @@
         <v>43773</v>
       </c>
       <c r="I102" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="J102" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="K102"/>
       <c r="L102"/>
@@ -11515,22 +12313,28 @@
       <c r="AK102" t="n">
         <v>201074</v>
       </c>
+      <c r="AL102" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -11540,10 +12344,10 @@
         <v>43612</v>
       </c>
       <c r="I103" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K103" t="n">
         <v>0.1645</v>
@@ -11618,22 +12422,28 @@
       <c r="AK103" t="n">
         <v>192252</v>
       </c>
+      <c r="AL103" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -11643,10 +12453,10 @@
         <v>43668</v>
       </c>
       <c r="I104" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="J104" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="K104" t="n">
         <v>0.2</v>
@@ -11721,22 +12531,28 @@
       <c r="AK104" t="n">
         <v>195806</v>
       </c>
+      <c r="AL104" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E105" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -11746,10 +12562,10 @@
         <v>43668</v>
       </c>
       <c r="I105" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="J105" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="K105" t="n">
         <v>0.2</v>
@@ -11824,22 +12640,28 @@
       <c r="AK105" t="n">
         <v>195797</v>
       </c>
+      <c r="AL105" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E106" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -11849,10 +12671,10 @@
         <v>43648</v>
       </c>
       <c r="I106" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K106" t="n">
         <v>80.293144</v>
@@ -11927,22 +12749,28 @@
       <c r="AK106" t="n">
         <v>194822</v>
       </c>
+      <c r="AL106" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -11952,23 +12780,23 @@
         <v>43648</v>
       </c>
       <c r="I107" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K107" t="n">
-        <v>78.823435</v>
+        <v>45.399687</v>
       </c>
       <c r="L107" t="n">
         <v>107.82</v>
       </c>
       <c r="M107" t="n">
-        <v>0.731065</v>
+        <v>0.421069</v>
       </c>
       <c r="N107"/>
       <c r="O107" t="n">
-        <v>0.731065</v>
+        <v>0.421069</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -11995,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>0.731065</v>
+        <v>0.421069</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
@@ -12019,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.731065</v>
+        <v>0.421069</v>
       </c>
       <c r="AG107"/>
       <c r="AH107"/>
@@ -12028,24 +12856,30 @@
         <v>0</v>
       </c>
       <c r="AK107" t="n">
-        <v>194823</v>
+        <v>194824</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E108" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -12055,23 +12889,23 @@
         <v>43648</v>
       </c>
       <c r="I108" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K108" t="n">
-        <v>45.399687</v>
+        <v>78.823435</v>
       </c>
       <c r="L108" t="n">
         <v>107.82</v>
       </c>
       <c r="M108" t="n">
-        <v>0.421069</v>
+        <v>0.731065</v>
       </c>
       <c r="N108"/>
       <c r="O108" t="n">
-        <v>0.421069</v>
+        <v>0.731065</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -12098,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0.421069</v>
+        <v>0.731065</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
@@ -12122,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="AF108" t="n">
-        <v>0.421069</v>
+        <v>0.731065</v>
       </c>
       <c r="AG108"/>
       <c r="AH108"/>
@@ -12131,24 +12965,30 @@
         <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>194824</v>
+        <v>194823</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E109" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -12158,10 +12998,10 @@
         <v>43668</v>
       </c>
       <c r="I109" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="J109" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="K109" t="n">
         <v>0.6</v>
@@ -12236,22 +13076,28 @@
       <c r="AK109" t="n">
         <v>195802</v>
       </c>
+      <c r="AL109" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E110" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -12261,23 +13107,23 @@
         <v>43697</v>
       </c>
       <c r="I110" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K110" t="n">
-        <v>992.92</v>
+        <v>0.1</v>
       </c>
       <c r="L110" t="n">
-        <v>14680</v>
+        <v>1.503</v>
       </c>
       <c r="M110" t="n">
-        <v>0.067638</v>
+        <v>0.066534</v>
       </c>
       <c r="N110"/>
       <c r="O110" t="n">
-        <v>0.067638</v>
+        <v>0.066534</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -12307,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.067638</v>
+        <v>0.066534</v>
       </c>
       <c r="Z110" t="n">
         <v>0</v>
@@ -12328,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="AF110" t="n">
-        <v>0.067638</v>
+        <v>0.066534</v>
       </c>
       <c r="AG110"/>
       <c r="AH110"/>
@@ -12337,24 +13183,30 @@
         <v>0</v>
       </c>
       <c r="AK110" t="n">
-        <v>197029</v>
+        <v>197035</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E111" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -12364,23 +13216,23 @@
         <v>43697</v>
       </c>
       <c r="I111" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K111" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="L111" t="n">
         <v>1.503</v>
       </c>
       <c r="M111" t="n">
-        <v>0.998004</v>
+        <v>0.499002</v>
       </c>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>0.998004</v>
+        <v>0.499002</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -12410,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.998004</v>
+        <v>0.499002</v>
       </c>
       <c r="Z111" t="n">
         <v>0</v>
@@ -12431,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AF111" t="n">
-        <v>0.998004</v>
+        <v>0.499002</v>
       </c>
       <c r="AG111"/>
       <c r="AH111"/>
@@ -12440,24 +13292,30 @@
         <v>0</v>
       </c>
       <c r="AK111" t="n">
-        <v>197033</v>
+        <v>197041</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E112" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -12467,23 +13325,23 @@
         <v>43697</v>
       </c>
       <c r="I112" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K112" t="n">
-        <v>0.157903</v>
+        <v>992.92</v>
       </c>
       <c r="L112" t="n">
-        <v>1.503</v>
+        <v>14680</v>
       </c>
       <c r="M112" t="n">
-        <v>0.105059</v>
+        <v>0.067638</v>
       </c>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>0.105059</v>
+        <v>0.067638</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -12513,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.105059</v>
+        <v>0.067638</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -12534,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.105059</v>
+        <v>0.067638</v>
       </c>
       <c r="AG112"/>
       <c r="AH112"/>
@@ -12543,24 +13401,30 @@
         <v>0</v>
       </c>
       <c r="AK112" t="n">
-        <v>197034</v>
+        <v>197029</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -12570,23 +13434,23 @@
         <v>43697</v>
       </c>
       <c r="I113" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K113" t="n">
-        <v>0.1</v>
+        <v>0.157903</v>
       </c>
       <c r="L113" t="n">
         <v>1.503</v>
       </c>
       <c r="M113" t="n">
-        <v>0.066534</v>
+        <v>0.105059</v>
       </c>
       <c r="N113"/>
       <c r="O113" t="n">
-        <v>0.066534</v>
+        <v>0.105059</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -12616,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.066534</v>
+        <v>0.105059</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
@@ -12637,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="AF113" t="n">
-        <v>0.066534</v>
+        <v>0.105059</v>
       </c>
       <c r="AG113"/>
       <c r="AH113"/>
@@ -12646,24 +13510,30 @@
         <v>0</v>
       </c>
       <c r="AK113" t="n">
-        <v>197035</v>
+        <v>197034</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -12673,23 +13543,23 @@
         <v>43697</v>
       </c>
       <c r="I114" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K114" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="L114" t="n">
         <v>1.503</v>
       </c>
       <c r="M114" t="n">
-        <v>0.499002</v>
+        <v>0.998004</v>
       </c>
       <c r="N114"/>
       <c r="O114" t="n">
-        <v>0.499002</v>
+        <v>0.998004</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -12719,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.499002</v>
+        <v>0.998004</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -12740,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="AF114" t="n">
-        <v>0.499002</v>
+        <v>0.998004</v>
       </c>
       <c r="AG114"/>
       <c r="AH114"/>
@@ -12749,24 +13619,30 @@
         <v>0</v>
       </c>
       <c r="AK114" t="n">
-        <v>197041</v>
+        <v>197033</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -12776,10 +13652,10 @@
         <v>43664</v>
       </c>
       <c r="I115" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K115" t="n">
         <v>1.5</v>
@@ -12854,22 +13730,28 @@
       <c r="AK115" t="n">
         <v>195641</v>
       </c>
+      <c r="AL115" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E116" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -12879,10 +13761,10 @@
         <v>43748</v>
       </c>
       <c r="I116" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="J116" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
@@ -12953,22 +13835,28 @@
       <c r="AK116" t="n">
         <v>198896</v>
       </c>
+      <c r="AL116" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -12978,23 +13866,23 @@
         <v>43759</v>
       </c>
       <c r="I117" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K117" t="n">
-        <v>0.335</v>
+        <v>0.488266</v>
       </c>
       <c r="L117" t="n">
         <v>1.406</v>
       </c>
       <c r="M117" t="n">
-        <v>0.238265</v>
+        <v>0.347273</v>
       </c>
       <c r="N117"/>
       <c r="O117" t="n">
-        <v>0.238265</v>
+        <v>0.347273</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -13027,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.238265</v>
+        <v>0.347273</v>
       </c>
       <c r="AA117" t="n">
         <v>0</v>
@@ -13045,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="AF117" t="n">
-        <v>0.238265</v>
+        <v>0.347273</v>
       </c>
       <c r="AG117"/>
       <c r="AH117"/>
@@ -13054,24 +13942,30 @@
         <v>0</v>
       </c>
       <c r="AK117" t="n">
-        <v>199668</v>
+        <v>199673</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -13081,23 +13975,23 @@
         <v>43759</v>
       </c>
       <c r="I118" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K118" t="n">
-        <v>0.065</v>
+        <v>0.164989</v>
       </c>
       <c r="L118" t="n">
         <v>1.406</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04623</v>
+        <v>0.117346</v>
       </c>
       <c r="N118"/>
       <c r="O118" t="n">
-        <v>0.04623</v>
+        <v>0.117346</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -13130,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.04623</v>
+        <v>0.117346</v>
       </c>
       <c r="AA118" t="n">
         <v>0</v>
@@ -13148,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.04623</v>
+        <v>0.117346</v>
       </c>
       <c r="AG118"/>
       <c r="AH118"/>
@@ -13157,24 +14051,30 @@
         <v>0</v>
       </c>
       <c r="AK118" t="n">
-        <v>199669</v>
+        <v>199670</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E119" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -13184,23 +14084,23 @@
         <v>43759</v>
       </c>
       <c r="I119" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K119" t="n">
-        <v>0.164989</v>
+        <v>0.078489</v>
       </c>
       <c r="L119" t="n">
         <v>1.406</v>
       </c>
       <c r="M119" t="n">
-        <v>0.117346</v>
+        <v>0.055824</v>
       </c>
       <c r="N119"/>
       <c r="O119" t="n">
-        <v>0.117346</v>
+        <v>0.055824</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -13233,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="Z119" t="n">
-        <v>0.117346</v>
+        <v>0.055824</v>
       </c>
       <c r="AA119" t="n">
         <v>0</v>
@@ -13251,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="AF119" t="n">
-        <v>0.117346</v>
+        <v>0.055824</v>
       </c>
       <c r="AG119"/>
       <c r="AH119"/>
@@ -13260,24 +14160,30 @@
         <v>0</v>
       </c>
       <c r="AK119" t="n">
-        <v>199670</v>
+        <v>199671</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -13287,23 +14193,23 @@
         <v>43759</v>
       </c>
       <c r="I120" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K120" t="n">
-        <v>0.078489</v>
+        <v>0.108882</v>
       </c>
       <c r="L120" t="n">
         <v>1.406</v>
       </c>
       <c r="M120" t="n">
-        <v>0.055824</v>
+        <v>0.077441</v>
       </c>
       <c r="N120"/>
       <c r="O120" t="n">
-        <v>0.055824</v>
+        <v>0.077441</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -13336,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="Z120" t="n">
-        <v>0.055824</v>
+        <v>0.077441</v>
       </c>
       <c r="AA120" t="n">
         <v>0</v>
@@ -13354,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AF120" t="n">
-        <v>0.055824</v>
+        <v>0.077441</v>
       </c>
       <c r="AG120"/>
       <c r="AH120"/>
@@ -13363,24 +14269,30 @@
         <v>0</v>
       </c>
       <c r="AK120" t="n">
-        <v>199671</v>
+        <v>199672</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E121" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -13390,23 +14302,23 @@
         <v>43759</v>
       </c>
       <c r="I121" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K121" t="n">
-        <v>0.108882</v>
+        <v>0.31</v>
       </c>
       <c r="L121" t="n">
         <v>1.406</v>
       </c>
       <c r="M121" t="n">
-        <v>0.077441</v>
+        <v>0.220484</v>
       </c>
       <c r="N121"/>
       <c r="O121" t="n">
-        <v>0.077441</v>
+        <v>0.220484</v>
       </c>
       <c r="P121" t="n">
         <v>1</v>
@@ -13439,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.077441</v>
+        <v>0.220484</v>
       </c>
       <c r="AA121" t="n">
         <v>0</v>
@@ -13457,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="AF121" t="n">
-        <v>0.077441</v>
+        <v>0.220484</v>
       </c>
       <c r="AG121"/>
       <c r="AH121"/>
@@ -13466,24 +14378,30 @@
         <v>0</v>
       </c>
       <c r="AK121" t="n">
-        <v>199672</v>
+        <v>199674</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E122" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -13493,23 +14411,23 @@
         <v>43759</v>
       </c>
       <c r="I122" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K122" t="n">
-        <v>0.488266</v>
+        <v>0.5</v>
       </c>
       <c r="L122" t="n">
         <v>1.406</v>
       </c>
       <c r="M122" t="n">
-        <v>0.347273</v>
+        <v>0.355619</v>
       </c>
       <c r="N122"/>
       <c r="O122" t="n">
-        <v>0.347273</v>
+        <v>0.355619</v>
       </c>
       <c r="P122" t="n">
         <v>1</v>
@@ -13542,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="Z122" t="n">
-        <v>0.347273</v>
+        <v>0.355619</v>
       </c>
       <c r="AA122" t="n">
         <v>0</v>
@@ -13560,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="AF122" t="n">
-        <v>0.347273</v>
+        <v>0.355619</v>
       </c>
       <c r="AG122"/>
       <c r="AH122"/>
@@ -13569,24 +14487,30 @@
         <v>0</v>
       </c>
       <c r="AK122" t="n">
-        <v>199673</v>
+        <v>199675</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E123" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -13596,23 +14520,23 @@
         <v>43759</v>
       </c>
       <c r="I123" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K123" t="n">
-        <v>0.31</v>
+        <v>1.6</v>
       </c>
       <c r="L123" t="n">
         <v>1.406</v>
       </c>
       <c r="M123" t="n">
-        <v>0.220484</v>
+        <v>1.13798</v>
       </c>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>0.220484</v>
+        <v>1.13798</v>
       </c>
       <c r="P123" t="n">
         <v>1</v>
@@ -13645,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.220484</v>
+        <v>1.13798</v>
       </c>
       <c r="AA123" t="n">
         <v>0</v>
@@ -13663,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="AF123" t="n">
-        <v>0.220484</v>
+        <v>1.13798</v>
       </c>
       <c r="AG123"/>
       <c r="AH123"/>
@@ -13672,24 +14596,30 @@
         <v>0</v>
       </c>
       <c r="AK123" t="n">
-        <v>199674</v>
+        <v>199676</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -13699,23 +14629,23 @@
         <v>43759</v>
       </c>
       <c r="I124" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5</v>
+        <v>0.335</v>
       </c>
       <c r="L124" t="n">
         <v>1.406</v>
       </c>
       <c r="M124" t="n">
-        <v>0.355619</v>
+        <v>0.238265</v>
       </c>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>0.355619</v>
+        <v>0.238265</v>
       </c>
       <c r="P124" t="n">
         <v>1</v>
@@ -13748,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.355619</v>
+        <v>0.238265</v>
       </c>
       <c r="AA124" t="n">
         <v>0</v>
@@ -13766,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="AF124" t="n">
-        <v>0.355619</v>
+        <v>0.238265</v>
       </c>
       <c r="AG124"/>
       <c r="AH124"/>
@@ -13775,24 +14705,30 @@
         <v>0</v>
       </c>
       <c r="AK124" t="n">
-        <v>199675</v>
+        <v>199668</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D125" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -13802,23 +14738,23 @@
         <v>43759</v>
       </c>
       <c r="I125" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K125" t="n">
-        <v>1.6</v>
+        <v>0.065</v>
       </c>
       <c r="L125" t="n">
         <v>1.406</v>
       </c>
       <c r="M125" t="n">
-        <v>1.13798</v>
+        <v>0.04623</v>
       </c>
       <c r="N125"/>
       <c r="O125" t="n">
-        <v>1.13798</v>
+        <v>0.04623</v>
       </c>
       <c r="P125" t="n">
         <v>1</v>
@@ -13851,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="Z125" t="n">
-        <v>1.13798</v>
+        <v>0.04623</v>
       </c>
       <c r="AA125" t="n">
         <v>0</v>
@@ -13869,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="AF125" t="n">
-        <v>1.13798</v>
+        <v>0.04623</v>
       </c>
       <c r="AG125"/>
       <c r="AH125"/>
@@ -13878,24 +14814,30 @@
         <v>0</v>
       </c>
       <c r="AK125" t="n">
-        <v>199676</v>
+        <v>199669</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E126" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -13905,10 +14847,10 @@
         <v>43754</v>
       </c>
       <c r="I126" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K126"/>
       <c r="L126"/>
@@ -13979,22 +14921,26 @@
       <c r="AK126" t="n">
         <v>199385</v>
       </c>
+      <c r="AL126" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E127" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="1" t="n">
@@ -14004,10 +14950,10 @@
         <v>43845</v>
       </c>
       <c r="I127" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K127" t="n">
         <v>29.842219</v>
@@ -14082,22 +15028,28 @@
       <c r="AK127" t="n">
         <v>203900</v>
       </c>
+      <c r="AL127" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E128" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="1" t="n">
@@ -14107,10 +15059,10 @@
         <v>43822</v>
       </c>
       <c r="I128" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="J128" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="K128" t="n">
         <v>0.1</v>
@@ -14185,22 +15137,28 @@
       <c r="AK128" t="n">
         <v>203220</v>
       </c>
+      <c r="AL128" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E129" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="1" t="n">
@@ -14210,10 +15168,10 @@
         <v>43822</v>
       </c>
       <c r="I129" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="J129" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="K129" t="n">
         <v>0.09975</v>
@@ -14288,22 +15246,28 @@
       <c r="AK129" t="n">
         <v>203221</v>
       </c>
+      <c r="AL129" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM129" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E130" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="1" t="n">
@@ -14313,10 +15277,10 @@
         <v>43888</v>
       </c>
       <c r="I130" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="J130" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="K130" t="n">
         <v>0.3</v>
@@ -14391,22 +15355,28 @@
       <c r="AK130" t="n">
         <v>205782</v>
       </c>
+      <c r="AL130" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E131" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="1" t="n">
@@ -14416,10 +15386,10 @@
         <v>43888</v>
       </c>
       <c r="I131" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="J131" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="K131" t="n">
         <v>0.780349</v>
@@ -14494,22 +15464,28 @@
       <c r="AK131" t="n">
         <v>205783</v>
       </c>
+      <c r="AL131" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E132" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="1" t="n">
@@ -14519,10 +15495,10 @@
         <v>44036</v>
       </c>
       <c r="I132" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="J132" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="K132" t="n">
         <v>0.997773</v>
@@ -14596,6 +15572,12 @@
       </c>
       <c r="AK132" t="n">
         <v>215435</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM132" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
